--- a/NavAstro/XLS/SondeMAK.xlsx
+++ b/NavAstro/XLS/SondeMAK.xlsx
@@ -450,9 +450,10 @@
           </rPr>
           <t xml:space="preserve">
    2. par une position et une vitesse angulaire
-        --&gt; la position est trouvee par M' = M + v * (t - t0)
-                     q = t - t1
-                     M(t) = (M(t0) + v * q) modulo 360</t>
+        --&gt; le temps  est trouvee par M' = M + v * (t - t0)
+                     Avec M' = 360° 
+                donc t = t0 + (360 - M(0)) / V    
+</t>
         </r>
       </text>
     </comment>
@@ -511,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X85" authorId="0" shapeId="0">
+    <comment ref="X92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V94" authorId="0" shapeId="0">
+    <comment ref="V101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="128">
   <si>
     <t>a. Par le nautical almanach (par interval horaire)</t>
   </si>
@@ -1539,7 +1540,10 @@
     <t>Mille Naut.</t>
   </si>
   <si>
-    <t>Meridienne Soleil (Excel en francais - pb de nom de fonctions)</t>
+    <t>1. Heure du passage a greenwitch du soleil</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,12 +1855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,7 +2469,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2623,35 +2621,138 @@
     <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="44" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="44" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,51 +2761,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2725,10 +2799,13 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="41" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="42" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="43" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2767,28 +2844,52 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2815,64 +2916,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="41" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="42" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="43" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2887,62 +2940,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3166,6 +3170,115 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="18978563"/>
+          <a:ext cx="7439025" cy="728662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="18745200"/>
+          <a:ext cx="1000125" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3727,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ113"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="U107" sqref="U107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,23 +3861,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -3774,14 +3887,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="151" t="s">
+      <c r="S3" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -3795,49 +3908,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="S4" s="152" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="S4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="76" t="s">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="S5" s="153" t="s">
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="S5" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -3876,14 +3989,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="154" t="s">
+      <c r="S6" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3898,31 +4011,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="127">
+      <c r="B7" s="161">
         <v>9</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="163">
         <v>56</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="165">
         <v>42</v>
       </c>
-      <c r="E7" s="127">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
-        <v>0</v>
-      </c>
-      <c r="G7" s="131">
-        <v>0</v>
-      </c>
-      <c r="H7" s="127">
-        <v>0</v>
-      </c>
-      <c r="I7" s="129">
-        <v>0</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="E7" s="161">
+        <v>0</v>
+      </c>
+      <c r="F7" s="163">
+        <v>0</v>
+      </c>
+      <c r="G7" s="165">
+        <v>0</v>
+      </c>
+      <c r="H7" s="161">
+        <v>0</v>
+      </c>
+      <c r="I7" s="163">
+        <v>0</v>
+      </c>
+      <c r="J7" s="165">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -3937,14 +4050,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="145" t="s">
+      <c r="S7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -3963,51 +4076,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="140">
+      <c r="B8" s="162"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="149">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="S8" s="146" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="S8" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -4034,8 +4147,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -4045,7 +4158,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="155" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -4057,33 +4170,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="135">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="159">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="135">
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="159">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="142"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="100"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -4098,8 +4211,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -4114,46 +4227,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="148">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="113" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="119" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="119"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -4166,11 +4279,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -4183,21 +4296,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="123">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="120">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="105" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="106"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -4241,16 +4354,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="M26" s="86" t="s">
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="M26" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -4293,18 +4406,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="87">
+      <c r="G29" s="89">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="M29" s="87">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="M29" s="89">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -4314,11 +4427,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -4345,9 +4458,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -4357,7 +4470,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -4369,28 +4482,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="115" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82">
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="116">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="81"/>
-      <c r="L33" s="82">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="L33" s="116">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="81"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="115"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -4405,21 +4518,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="112"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -4446,9 +4559,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -4458,7 +4571,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="81" t="s">
+      <c r="J36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -4470,7 +4583,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="81" t="s">
+      <c r="O36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -4492,23 +4605,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82">
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="116">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="81"/>
-      <c r="L37" s="82">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="L37" s="116">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="81"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="115"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -4586,11 +4699,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -4645,12 +4758,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="87">
+      <c r="G46" s="89">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -4684,11 +4797,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4702,11 +4815,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="83" t="s">
+      <c r="L48" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4727,9 +4840,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -4739,13 +4852,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="115" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -4755,7 +4868,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="81" t="s">
+      <c r="R49" s="115" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -4766,27 +4879,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82">
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="116">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="81"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="115"/>
       <c r="K50"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="82">
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="116">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="81"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="115"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -4802,10 +4915,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -4820,11 +4933,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4838,11 +4951,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="83" t="s">
+      <c r="L52" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4863,9 +4976,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -4875,13 +4988,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -4891,7 +5004,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="81" t="s">
+      <c r="R53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -4909,27 +5022,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82">
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="116">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="81"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="115"/>
       <c r="K54"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="82">
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="116">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="81"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="115"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -4973,19 +5086,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98" t="s">
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -4997,23 +5110,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="91" t="s">
+      <c r="F60" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92">
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -5028,9 +5141,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -5049,29 +5162,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="88"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="90"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="108"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="91" t="s">
+      <c r="F64" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="93">
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="109">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -5086,9 +5199,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -5160,16 +5273,16 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="71" t="s">
+      <c r="T71" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="72"/>
+      <c r="U71" s="100"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -5265,19 +5378,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="77">
+      <c r="F74" s="90">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="75" t="s">
+      <c r="T74" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="75"/>
+      <c r="U74" s="101"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -5327,11 +5440,11 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -5367,10 +5480,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="71" t="s">
+      <c r="T84" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="72"/>
+      <c r="U84" s="100"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -5412,10 +5525,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="73" t="s">
+      <c r="T85" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="74"/>
+      <c r="U85" s="97"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -5429,12 +5542,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="85">
+      <c r="F86" s="98">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -5446,10 +5559,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="73" t="s">
+      <c r="T86" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="74"/>
+      <c r="U86" s="97"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -5466,10 +5579,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="73" t="s">
+      <c r="T87" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="74"/>
+      <c r="U87" s="97"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -5486,10 +5599,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="71" t="s">
+      <c r="T88" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="72"/>
+      <c r="U88" s="100"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -5558,11 +5671,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="76" t="s">
+      <c r="O92" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -5575,13 +5688,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="167" t="s">
+      <c r="W92" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="87" t="s">
+      <c r="X92" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="87">
+      <c r="Y92" s="89">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -5631,9 +5744,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="87"/>
-      <c r="X93" s="87"/>
-      <c r="Y93" s="87"/>
+      <c r="W93" s="89"/>
+      <c r="X93" s="89"/>
+      <c r="Y93" s="89"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -5673,9 +5786,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="87"/>
-      <c r="X94" s="87"/>
-      <c r="Y94" s="87"/>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -5683,12 +5796,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="77">
+      <c r="O95" s="90">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="P95" s="90"/>
+      <c r="Q95" s="90"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -5706,64 +5819,64 @@
       </c>
     </row>
     <row r="97" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U97" s="166" t="s">
+      <c r="U97" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="V97" s="163" t="s">
+      <c r="V97" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="W97" s="163"/>
-      <c r="X97" s="163"/>
-      <c r="Y97" s="162" t="s">
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z97" s="162"/>
-      <c r="AA97" s="162"/>
+      <c r="Z97" s="78"/>
+      <c r="AA97" s="78"/>
     </row>
     <row r="98" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U98" s="166"/>
-      <c r="V98" s="163" t="s">
+      <c r="U98" s="82"/>
+      <c r="V98" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="W98" s="163" t="s">
+      <c r="W98" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="X98" s="163" t="s">
+      <c r="X98" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Y98" s="162" t="s">
+      <c r="Y98" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="Z98" s="162" t="s">
+      <c r="Z98" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="AA98" s="162" t="s">
+      <c r="AA98" s="78" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="99" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U99" s="166"/>
-      <c r="V99" s="164">
+      <c r="U99" s="82"/>
+      <c r="V99" s="80">
         <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
         <v>10</v>
       </c>
-      <c r="W99" s="163">
+      <c r="W99" s="79">
         <f>INDEX(Constante!$M$6:$M$17,V99)</f>
         <v>30</v>
       </c>
-      <c r="X99" s="163">
+      <c r="X99" s="79">
         <f>INDEX(Constante!$N$6:$S$17,V99,1+V96)</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="Y99" s="165">
+      <c r="Y99" s="81">
         <f>V99+1</f>
         <v>11</v>
       </c>
-      <c r="Z99" s="162">
+      <c r="Z99" s="78">
         <f>INDEX(Constante!$M$6:$M$17,Y99)</f>
         <v>50</v>
       </c>
-      <c r="AA99" s="162">
+      <c r="AA99" s="78">
         <f>INDEX(Constante!$N$6:$S$17,Y99,1+V96)</f>
         <v>0.255</v>
       </c>
@@ -5798,11 +5911,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="76" t="s">
+      <c r="F106" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="67" t="s">
@@ -5830,164 +5943,113 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="78">
+      <c r="F109" s="92">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="79"/>
-      <c r="H109" s="80"/>
-      <c r="J109" s="145">
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
+      <c r="J109" s="95">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="145"/>
-      <c r="L109" s="145" t="s">
+      <c r="K109" s="95"/>
+      <c r="L109" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="145"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="168" t="s">
+      <c r="G112" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="168"/>
-      <c r="I112" s="168"/>
-      <c r="J112" s="169" t="s">
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="169">
+      <c r="K112" s="83">
         <f>ABS(I60)</f>
         <v>6.4325833333333335</v>
       </c>
-      <c r="L112" s="169" t="str">
+      <c r="L112" s="83" t="str">
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="168" t="s">
+      <c r="N112" s="87"/>
+      <c r="O112" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="168"/>
-      <c r="Q112" s="168"/>
-      <c r="R112" s="169" t="s">
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="S112" s="172">
+      <c r="S112" s="84">
         <f>D12</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="T112" s="169" t="str">
+      <c r="T112" s="83" t="str">
         <f>G11</f>
         <v>N</v>
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="168"/>
-      <c r="H113" s="168"/>
-      <c r="I113" s="168"/>
-      <c r="J113" s="169" t="s">
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="169">
+      <c r="K113" s="83">
         <f>ABS(I64)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="L113" s="169" t="str">
+      <c r="L113" s="83" t="str">
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="168"/>
-      <c r="P113" s="168"/>
-      <c r="Q113" s="168"/>
-      <c r="R113" s="169" t="s">
+      <c r="M113" s="86"/>
+      <c r="N113" s="87"/>
+      <c r="O113" s="85"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="172">
+      <c r="S113" s="84">
         <f>H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="T113" s="169" t="str">
+      <c r="T113" s="83" t="str">
         <f>K11</f>
         <v>E</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="S8:X8"/>
@@ -5998,25 +6060,76 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6077,8 +6190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,35 +6211,41 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-    </row>
-    <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B2" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="57"/>
+    </row>
+    <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+    </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
         <v>91</v>
@@ -6139,33 +6258,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="S4" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="76" t="s">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="S5" s="172" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -6195,15 +6330,23 @@
       <c r="J6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="75" t="s">
         <v>5</v>
       </c>
+      <c r="S6" s="160" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6218,45 +6361,53 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="127">
+      <c r="B7" s="161">
         <v>9</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="163">
         <v>56</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="165">
         <v>42</v>
       </c>
-      <c r="E7" s="127">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
-        <v>0</v>
-      </c>
-      <c r="G7" s="131">
-        <v>0</v>
-      </c>
-      <c r="H7" s="127">
-        <v>0</v>
-      </c>
-      <c r="I7" s="129">
-        <v>0</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="E7" s="161">
+        <v>0</v>
+      </c>
+      <c r="F7" s="163">
+        <v>0</v>
+      </c>
+      <c r="G7" s="165">
+        <v>0</v>
+      </c>
+      <c r="H7" s="161">
+        <v>0</v>
+      </c>
+      <c r="I7" s="163">
+        <v>0</v>
+      </c>
+      <c r="J7" s="165">
         <v>0</v>
       </c>
       <c r="K7" s="36">
         <f>INT(AJ7)</f>
         <v>9</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="74">
         <f>INT(60 * (AJ7-K7))</f>
         <v>56</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="74">
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
+      <c r="S7" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -6275,43 +6426,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="140">
+      <c r="B8" s="162"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="149">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="S8" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -6338,8 +6497,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -6349,7 +6508,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="155" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -6361,33 +6520,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="135">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="159">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="135">
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="159">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="142"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="100"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -6402,8 +6561,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -6418,46 +6577,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="148">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="113" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="119" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="122"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="M16" s="119"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -6469,12 +6628,12 @@
       </c>
       <c r="J17" s="52"/>
     </row>
-    <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -6486,22 +6645,22 @@
       </c>
       <c r="J18" s="51"/>
     </row>
-    <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="123">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="120">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="105" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="106"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -6509,16 +6668,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="R22" s="19">
-        <f>(K8-M29)/(G29-M29)</f>
-        <v>5.4999999999999716E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -6534,7 +6687,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C25" s="31" t="s">
         <v>0</v>
       </c>
@@ -6546,32 +6699,23 @@
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D26" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="M26" s="86" t="s">
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="M26" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U26" s="19">
-        <f>(1-$R$22)*$G33+$R$22*$L33</f>
-        <v>-5.5542500000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
         <v>3</v>
       </c>
@@ -6591,248 +6735,259 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G28" s="65">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G28" s="72">
         <v>9</v>
       </c>
-      <c r="H28" s="65">
-        <v>0</v>
-      </c>
-      <c r="I28" s="65">
-        <v>0</v>
-      </c>
-      <c r="M28" s="65">
+      <c r="H28" s="72">
+        <v>0</v>
+      </c>
+      <c r="I28" s="72">
+        <v>0</v>
+      </c>
+      <c r="M28" s="72">
         <v>10</v>
       </c>
-      <c r="N28" s="65">
-        <v>0</v>
-      </c>
-      <c r="O28" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G29" s="87">
+      <c r="N28" s="72">
+        <v>0</v>
+      </c>
+      <c r="O28" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G29" s="89">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="M29" s="87">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="M29" s="89">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19" t="s">
+      <c r="R29" s="19">
+        <f>(K8-M29)/(G29-M29)</f>
+        <v>5.4999999999999716E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="34">
+        <v>5</v>
+      </c>
+      <c r="H32" s="34">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I32" s="34">
+        <v>0</v>
+      </c>
+      <c r="J32" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="34">
+        <v>5</v>
+      </c>
+      <c r="M32" s="34">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0</v>
+      </c>
+      <c r="O32" s="115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="116">
+        <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
+        <v>-5.5533333333333337</v>
+      </c>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="L33" s="116">
+        <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
+        <v>-5.57</v>
+      </c>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="115"/>
+      <c r="Q33" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U33" s="19">
+        <f>(1-$R$29)*$G33+$R$29*$L33</f>
+        <v>-5.5542500000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="112"/>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D35" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="34">
+        <v>359</v>
+      </c>
+      <c r="H36" s="34">
+        <v>2</v>
+      </c>
+      <c r="I36" s="34">
+        <v>0</v>
+      </c>
+      <c r="J36" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="34">
+        <v>20</v>
+      </c>
+      <c r="M36" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+      <c r="O36" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="V29" s="19" t="s">
+      <c r="V36" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19" t="s">
+      <c r="W36" s="19"/>
+      <c r="X36" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="T30" s="19" t="s">
+      <c r="Y36" s="19"/>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="116">
+        <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
+        <v>359.03333333333336</v>
+      </c>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="L37" s="116">
+        <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
+        <v>20.035</v>
+      </c>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="115"/>
+      <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U30" s="19">
-        <f>IF(V30&gt;360,V30-360,IF(V30&lt;0,V30+360,V30))</f>
+      <c r="U37" s="19">
+        <f>IF(V37&gt;360,V37-360,IF(V37&lt;0,V37+360,V37))</f>
         <v>0.18842499999999518</v>
       </c>
-      <c r="V30" s="19">
-        <f>(1-$R$22)*$G37+$R$22*$X$30</f>
+      <c r="V37" s="19">
+        <f>(1-$R$29)*$G37+$R$29*$X$37</f>
         <v>360.188425</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19">
+      <c r="W37" s="19"/>
+      <c r="X37" s="19">
         <f>IF(L37&lt;G37,L37+360,L37)</f>
         <v>380.03500000000003</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D31" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="34">
-        <v>5</v>
-      </c>
-      <c r="H32" s="34">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="I32" s="34">
-        <v>0</v>
-      </c>
-      <c r="J32" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="34">
-        <v>5</v>
-      </c>
-      <c r="M32" s="34">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="N32" s="34">
-        <v>0</v>
-      </c>
-      <c r="O32" s="81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82">
-        <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
-        <v>-5.5533333333333337</v>
-      </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="81"/>
-      <c r="L33" s="82">
-        <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
-        <v>-5.57</v>
-      </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="81"/>
-      <c r="Q33" s="70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="34">
-        <v>359</v>
-      </c>
-      <c r="H36" s="34">
-        <v>2</v>
-      </c>
-      <c r="I36" s="34">
-        <v>0</v>
-      </c>
-      <c r="J36" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="34">
-        <v>20</v>
-      </c>
-      <c r="M36" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="N36" s="34">
-        <v>0</v>
-      </c>
-      <c r="O36" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y36" s="19"/>
-    </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82">
-        <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
-        <v>359.03333333333336</v>
-      </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="81"/>
-      <c r="L37" s="82">
-        <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
-        <v>20.035</v>
-      </c>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="81"/>
       <c r="Y37" s="19"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.25">
@@ -6844,10 +6999,6 @@
       <c r="AE38"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="R39" s="19">
-        <f>K8-G46</f>
-        <v>9.9450000000000003</v>
-      </c>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -6864,9 +7015,6 @@
       <c r="AE40"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="R41" s="27" t="s">
-        <v>22</v>
-      </c>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -6889,9 +7037,6 @@
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
-      <c r="R42" s="81" t="s">
-        <v>28</v>
-      </c>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -6904,23 +7049,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
-      <c r="R43" s="81"/>
-      <c r="T43" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U43" s="19">
-        <f>G50+O50*$R$39</f>
-        <v>-6.4325833333333335</v>
-      </c>
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -6950,22 +7087,19 @@
       <c r="AE44"/>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G45" s="65">
-        <v>0</v>
-      </c>
-      <c r="H45" s="65">
-        <v>0</v>
-      </c>
-      <c r="I45" s="65">
+      <c r="G45" s="72">
+        <v>0</v>
+      </c>
+      <c r="H45" s="72">
+        <v>0</v>
+      </c>
+      <c r="I45" s="72">
         <v>0</v>
       </c>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
-      <c r="R45" s="27" t="s">
-        <v>22</v>
-      </c>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -6974,12 +7108,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="87">
+      <c r="G46" s="89">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -6987,15 +7121,9 @@
       <c r="Q46" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="R46" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="V46" s="19" t="s">
-        <v>92</v>
+      <c r="R46" s="19">
+        <f>K8-G46</f>
+        <v>9.9450000000000003</v>
       </c>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -7011,18 +7139,6 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="R47" s="81"/>
-      <c r="T47" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U47" s="19">
-        <f>IF(V47&gt;360,V47-360,IF(V47&lt;0,V47+360,V47))</f>
-        <v>326.22655666666668</v>
-      </c>
-      <c r="V47" s="19">
-        <f>G54+O54*$R$39</f>
-        <v>326.22655666666668</v>
-      </c>
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -7031,11 +7147,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7049,11 +7165,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="83" t="s">
+      <c r="L48" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7062,6 +7178,9 @@
       </c>
       <c r="Q48" s="26" t="s">
         <v>5</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -7071,9 +7190,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -7083,13 +7202,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="115" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -7098,6 +7217,9 @@
       </c>
       <c r="Q49" s="34">
         <v>0</v>
+      </c>
+      <c r="R49" s="115" t="s">
+        <v>28</v>
       </c>
       <c r="Z49"/>
       <c r="AA49"/>
@@ -7107,26 +7229,34 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82">
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="116">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="81"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="115"/>
       <c r="K50"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="82">
-        <f>(O49+P49/60+Q49/3600) * VLOOKUP(R42,Constante!$D$15:$E$16,2)</f>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="116">
+        <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="115"/>
+      <c r="T50" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="U50" s="19">
+        <f>G46+(360 - G54)/O54</f>
+        <v>12.196262720526152</v>
+      </c>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -7135,10 +7265,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -7153,11 +7283,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -7171,11 +7301,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="83" t="s">
+      <c r="L52" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -7184,6 +7314,9 @@
       </c>
       <c r="Q52" s="26" t="s">
         <v>5</v>
+      </c>
+      <c r="R52" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="Z52"/>
       <c r="AA52"/>
@@ -7193,9 +7326,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -7205,13 +7338,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -7220,6 +7353,16 @@
       </c>
       <c r="Q53" s="34">
         <v>0</v>
+      </c>
+      <c r="R53" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="V53" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="Z53"/>
       <c r="AA53"/>
@@ -7229,26 +7372,38 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82">
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="116">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="81"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="115"/>
       <c r="K54"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="82">
-        <f>(O53+P53/60+Q53/3600) * VLOOKUP(R46,Constante!$D$12:$E$13,2)</f>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="116">
+        <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="115"/>
+      <c r="T54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U54" s="19">
+        <f>IF(V54&gt;360,V54-360,IF(V54&lt;0,V54+360,V54))</f>
+        <v>326.22655666666668</v>
+      </c>
+      <c r="V54" s="19">
+        <f>G54+O54*$R$46</f>
+        <v>326.22655666666668</v>
+      </c>
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
@@ -7281,20 +7436,20 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98" t="s">
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="63" t="str">
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="71" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
       </c>
@@ -7305,30 +7460,30 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="91" t="s">
+      <c r="F60" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92">
-        <f>IF(L58=Constante!E23,U26,U43)</f>
-        <v>-6.4325833333333335</v>
-      </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105">
+        <f>IF(L58=Constante!E23,U33,U50)</f>
+        <v>12.196262720526152</v>
+      </c>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="67" t="s">
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="67" t="s">
+      <c r="J61" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="67" t="s">
+      <c r="K61" s="75" t="s">
         <v>5</v>
       </c>
       <c r="L61" s="19" t="s">
@@ -7336,116 +7491,67 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J62" s="20">
         <f>INT(60*(ABS(I60)-I62))</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K62" s="20">
         <f>INT(3600*(ABS(I60)-I62-J62/60))</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L62" s="19" t="str">
         <f>VLOOKUP(IF(I60&lt;0,-1,1),Constante!$F$15:$G$17,2)</f>
-        <v>S</v>
-      </c>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19" t="s">
-        <v>100</v>
+        <v>N</v>
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="88"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="90"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19">
-        <f>I60</f>
-        <v>-6.4325833333333335</v>
-      </c>
-      <c r="W63" s="19"/>
-      <c r="X63" s="68">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="108"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="91" t="s">
+      <c r="F64" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="93">
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="109">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="U64" s="72"/>
-      <c r="V64" s="69">
-        <f>V63*Constante!$D$19</f>
-        <v>-0.11226975857557858</v>
-      </c>
-      <c r="W64" s="69"/>
-      <c r="X64" s="69">
-        <f>X63*Constante!$D$19</f>
-        <v>0.85303937594286972</v>
-      </c>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="67" t="s">
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="67" t="s">
+      <c r="J65" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="75" t="s">
         <v>5</v>
       </c>
       <c r="L65" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S65" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="T65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19">
-        <f>SIN(V64)*SIN(X64)</f>
-        <v>-8.4393335489627935E-2</v>
-      </c>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -7462,36 +7568,18 @@
         <f>VLOOKUP(IF(I64&lt;0,-1,1),Constante!$F$12:$G$13,2)</f>
         <v>E</v>
       </c>
-      <c r="S66" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T66" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19">
-        <f>COS(V64)*COS(Z71)*COS(X64)</f>
-        <v>0.65311929816189707</v>
-      </c>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S67" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="T67" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="U67" s="75"/>
-      <c r="V67" s="69">
-        <f>ASIN(V65+V66)</f>
-        <v>0.60495609368228154</v>
-      </c>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
     </row>
     <row r="69" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="Y69" s="19"/>
       <c r="Z69" s="19" t="s">
         <v>101</v>
@@ -7515,6 +7603,18 @@
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19">
+        <f>I60</f>
+        <v>12.196262720526152</v>
+      </c>
+      <c r="W70" s="19"/>
+      <c r="X70" s="68">
+        <f>D12</f>
+        <v>48.875556000000003</v>
+      </c>
       <c r="Y70" s="19"/>
       <c r="Z70" s="68">
         <f>I64</f>
@@ -7523,11 +7623,25 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="U71" s="100"/>
+      <c r="V71" s="69">
+        <f>V70*Constante!$D$19</f>
+        <v>0.21286494091142236</v>
+      </c>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69">
+        <f>X70*Constante!$D$19</f>
+        <v>0.85303937594286972</v>
+      </c>
       <c r="Y71" s="69"/>
       <c r="Z71" s="69">
         <f>Z70*Constante!$D$19</f>
@@ -7545,161 +7659,99 @@
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="67" t="s">
+      <c r="G72" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="67" t="s">
+      <c r="H72" s="75" t="s">
         <v>5</v>
       </c>
+      <c r="S72" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T72" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19">
+        <f>SIN(V71)*SIN(X71)</f>
+        <v>0.15913932325834326</v>
+      </c>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
       <c r="AA72" s="19"/>
       <c r="AC72" s="1">
-        <f>SIN(Constante!D19*'Meridienne Soleil'!I60)</f>
+        <f>SIN(Constante!D19*'Droite hauteur Soleil'!I60)</f>
         <v>-0.11203405649912536</v>
       </c>
       <c r="AD72" s="1">
-        <f>SIN(Constante!$D$19*'Meridienne Soleil'!D12)*SIN(Constante!$D$19*'Meridienne Soleil'!F74)</f>
+        <f>SIN(Constante!$D$19*'Droite hauteur Soleil'!D12)*SIN(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
         <v>0.42841152475664518</v>
       </c>
       <c r="AE72" s="1">
-        <f>COS(Constante!$D$19*'Meridienne Soleil'!D12)*COS(Constante!$D$19*'Meridienne Soleil'!F74)</f>
+        <f>COS(Constante!$D$19*'Droite hauteur Soleil'!D12)*COS(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
         <v>0.5409733204231264</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F73" s="20">
         <f>INT(ABS(F74))</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G73" s="20">
         <f>INT(60*(ABS(F74)-F73))</f>
-        <v>39</v>
-      </c>
-      <c r="H73" s="66">
+        <v>16</v>
+      </c>
+      <c r="H73" s="73">
         <f>ABS(F74)-F73-G73/60</f>
-        <v>1.1430958715577311E-2</v>
-      </c>
+        <v>1.285223160259269E-2</v>
+      </c>
+      <c r="S73" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T73" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19">
+        <f>COS(V71)*COS(Z71)*COS(X71)</f>
+        <v>0.64242264109019009</v>
+      </c>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="77">
-        <f>V67/Constante!$D$19</f>
-        <v>34.661430958715577</v>
-      </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
+      <c r="F74" s="90">
+        <f>V74/Constante!$D$19</f>
+        <v>53.279518898269259</v>
+      </c>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="S74" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="U74" s="101"/>
+      <c r="V74" s="69">
+        <f>ASIN(V72+V73)</f>
+        <v>0.92990302865334029</v>
+      </c>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="19"/>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19">
-        <f>I60</f>
-        <v>-6.4325833333333335</v>
-      </c>
-      <c r="W76" s="19"/>
-      <c r="X76" s="68">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S77" s="19"/>
-      <c r="T77" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="U77" s="72"/>
-      <c r="V77" s="69">
-        <f>V76*Constante!$D$19</f>
-        <v>-0.11226975857557858</v>
-      </c>
-      <c r="W77" s="69"/>
-      <c r="X77" s="69">
-        <f>X76*Constante!$D$19</f>
-        <v>0.85303937594286972</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S78" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="T78" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="U78" s="74"/>
-      <c r="V78" s="19">
-        <f>SIN(V77)</f>
-        <v>-0.11203405649912536</v>
-      </c>
-      <c r="W78" s="19"/>
-      <c r="X78" s="19"/>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S79" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T79" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="U79" s="74"/>
-      <c r="V79" s="19">
-        <f>SIN(X77)*SIN(AB84)</f>
-        <v>0.42841152475664518</v>
-      </c>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-    </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="S80" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="T80" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="U80" s="74"/>
-      <c r="V80" s="19">
-        <f>COS(X77)*COS(AB84)</f>
-        <v>0.5409733204231264</v>
-      </c>
-      <c r="W80" s="19"/>
-      <c r="X80" s="19"/>
-    </row>
-    <row r="81" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S81" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="T81" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="U81" s="72"/>
-      <c r="V81" s="69">
-        <f>ACOS(((V78-V79)/V80))</f>
-        <v>3.0974181121302333</v>
-      </c>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-    </row>
+    <row r="81" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="28" t="s">
         <v>45</v>
@@ -7717,12 +7769,16 @@
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
       <c r="O82" s="30"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="Y82" s="19"/>
       <c r="Z82" s="19" t="s">
         <v>101</v>
@@ -7734,17 +7790,23 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19">
+        <f>I60</f>
+        <v>12.196262720526152</v>
+      </c>
+      <c r="W83" s="19"/>
+      <c r="X83" s="68">
+        <f>D12</f>
+        <v>48.875556000000003</v>
+      </c>
       <c r="Y83" s="19"/>
       <c r="Z83" s="68">
         <f>I64</f>
@@ -7753,19 +7815,33 @@
       <c r="AA83" s="19"/>
       <c r="AB83" s="68">
         <f>F74</f>
-        <v>34.661430958715577</v>
+        <v>53.279518898269259</v>
       </c>
       <c r="AC83" s="19"/>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F84" s="67" t="s">
+      <c r="F84" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="67" t="s">
+      <c r="G84" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="67" t="s">
+      <c r="H84" s="75" t="s">
         <v>5</v>
+      </c>
+      <c r="S84" s="19"/>
+      <c r="T84" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="U84" s="100"/>
+      <c r="V84" s="69">
+        <f>V83*Constante!$D$19</f>
+        <v>0.21286494091142236</v>
+      </c>
+      <c r="W84" s="69"/>
+      <c r="X84" s="69">
+        <f>X83*Constante!$D$19</f>
+        <v>0.85303937594286972</v>
       </c>
       <c r="Y84" s="69"/>
       <c r="Z84" s="69">
@@ -7775,45 +7851,40 @@
       <c r="AA84" s="69"/>
       <c r="AB84" s="69">
         <f>AB83*Constante!$D$19</f>
-        <v>0.60495609368228154</v>
+        <v>0.92990302865334029</v>
       </c>
       <c r="AC84" s="69"/>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F85" s="20">
         <f>INT(ABS(F86))</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G85" s="20">
         <f>INT(60*(ABS(F86)-F85))</f>
-        <v>28</v>
-      </c>
-      <c r="H85" s="66">
+        <v>34</v>
+      </c>
+      <c r="H85" s="73">
         <f>ABS(F86)-F85-G85/60</f>
-        <v>2.31854577487145E-3</v>
+        <v>7.5990300985286918E-3</v>
       </c>
       <c r="J85" s="22" t="s">
         <v>70</v>
       </c>
       <c r="K85" s="22"/>
-      <c r="S85" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="T85" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="U85" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="V85" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="W85" s="167" t="s">
-        <v>121</v>
-      </c>
-      <c r="X85" s="87" t="s">
-        <v>120</v>
-      </c>
+      <c r="S85" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T85" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="U85" s="97"/>
+      <c r="V85" s="19">
+        <f>SIN(V84)</f>
+        <v>0.21126104128624015</v>
+      </c>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="19"/>
@@ -7821,38 +7892,33 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="85">
-        <f>V81/Constante!$D$19</f>
-        <v>177.46898521244154</v>
-      </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="F86" s="98">
+        <f>V88/Constante!$D$19</f>
+        <v>176.5742656967652</v>
+      </c>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
-        <v>182.53101478755846</v>
+        <v>183.4257343032348</v>
       </c>
       <c r="L86" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S86" s="63" t="b">
-        <f>ISNUMBER(SEARCH(E16,Constante!D4))</f>
-        <v>0</v>
-      </c>
-      <c r="T86" s="63" t="b">
-        <f>ISNUMBER(SEARCH(E16,Constante!D3))</f>
-        <v>1</v>
-      </c>
-      <c r="U86" s="63" t="b">
-        <f>AND(NOT(S86),NOT(T86))</f>
-        <v>0</v>
-      </c>
-      <c r="V86" s="63" t="b">
-        <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
-        <v>0</v>
-      </c>
-      <c r="W86" s="87"/>
-      <c r="X86" s="87"/>
+      <c r="S86" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T86" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="U86" s="97"/>
+      <c r="V86" s="19">
+        <f>SIN(X84)*SIN(AB84)</f>
+        <v>0.60380289607311577</v>
+      </c>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="19"/>
@@ -7860,22 +7926,19 @@
       <c r="AC86" s="19"/>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="S87" s="19">
-        <v>999</v>
-      </c>
-      <c r="T87" s="19">
-        <v>0</v>
-      </c>
-      <c r="U87" s="19">
-        <f>Constante!Q19</f>
-        <v>-0.26666666666</v>
-      </c>
+      <c r="S87" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T87" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="U87" s="97"/>
       <c r="V87" s="19">
-        <f>Constante!Q20</f>
-        <v>-0.53333333333300004</v>
-      </c>
-      <c r="W87" s="87"/>
-      <c r="X87" s="87"/>
+        <f>COS(X84)*COS(AB84)</f>
+        <v>0.39324454744956178</v>
+      </c>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="19"/>
@@ -7883,6 +7946,19 @@
       <c r="AC87" s="19"/>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="S88" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T88" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="U88" s="100"/>
+      <c r="V88" s="69">
+        <f>ACOS(((V85-V86)/V87))</f>
+        <v>3.0818023106998318</v>
+      </c>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="19"/>
@@ -7890,17 +7966,12 @@
       <c r="AC88" s="19"/>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="S89" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="V89" s="19">
-        <f>L19</f>
-        <v>0</v>
-      </c>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89"/>
       <c r="AA89"/>
@@ -7908,14 +7979,12 @@
       <c r="AC89"/>
     </row>
     <row r="90" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U90" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="V90" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="W90" s="163"/>
-      <c r="X90" s="163"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
       <c r="Y90"/>
       <c r="Z90"/>
       <c r="AA90"/>
@@ -7939,16 +8008,6 @@
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
       <c r="O91" s="30"/>
-      <c r="U91" s="166"/>
-      <c r="V91" s="163" t="s">
-        <v>116</v>
-      </c>
-      <c r="W91" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="X91" s="163" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="s">
@@ -7962,26 +8021,31 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="76" t="s">
+      <c r="O92" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
-      <c r="U92" s="166"/>
-      <c r="V92" s="164">
-        <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
-        <v>10</v>
-      </c>
-      <c r="W92" s="163">
-        <f>INDEX(Constante!$M$6:$M$17,V92)</f>
-        <v>30</v>
-      </c>
-      <c r="X92" s="163">
-        <f>INDEX(Constante!$N$6:$S$17,V92,1+V89)</f>
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="Y92" s="87">
-        <f>IF(U86,U87,IF(T86,IF(V86,V87,T87),IF(S86,S87,888)))</f>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
+      <c r="S92" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T92" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="U92" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="V92" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="W92" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="X92" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y92" s="89">
+        <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
     </row>
@@ -8002,26 +8066,37 @@
         <v>60</v>
       </c>
       <c r="I93" s="19">
-        <f>V94</f>
+        <f>V101</f>
         <v>0.24252222222222225</v>
       </c>
-      <c r="O93" s="67" t="s">
+      <c r="O93" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="P93" s="67" t="s">
+      <c r="P93" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="Q93" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="U93" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V93" s="23">
-        <f>(D93-W92)/(Z99-W92)</f>
-        <v>6.4166666666666747E-2</v>
-      </c>
-      <c r="Y93" s="87"/>
+      <c r="S93" s="71" t="b">
+        <f>ISNUMBER(SEARCH(E16,Constante!D4))</f>
+        <v>0</v>
+      </c>
+      <c r="T93" s="71" t="b">
+        <f>ISNUMBER(SEARCH(E16,Constante!D3))</f>
+        <v>1</v>
+      </c>
+      <c r="U93" s="71" t="b">
+        <f>AND(NOT(S93),NOT(T93))</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="71" t="b">
+        <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
+        <v>0</v>
+      </c>
+      <c r="W93" s="89"/>
+      <c r="X93" s="89"/>
+      <c r="Y93" s="89"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -8043,18 +8118,27 @@
         <f>INT(60*(ABS(O95)-O94))</f>
         <v>49</v>
       </c>
-      <c r="Q94" s="66">
+      <c r="Q94" s="73">
         <f>ABS(O95)-O94-P94/60</f>
         <v>9.1888888888929099E-3</v>
       </c>
-      <c r="U94" s="19" t="s">
-        <v>92</v>
+      <c r="S94" s="19">
+        <v>999</v>
+      </c>
+      <c r="T94" s="19">
+        <v>0</v>
+      </c>
+      <c r="U94" s="19">
+        <f>Constante!Q19</f>
+        <v>-0.26666666666</v>
       </c>
       <c r="V94" s="19">
-        <f>(1-V93)*X92+V93*AA99</f>
-        <v>0.24252222222222225</v>
-      </c>
-      <c r="Y94" s="87"/>
+        <f>Constante!Q20</f>
+        <v>-0.53333333333300004</v>
+      </c>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -8062,248 +8146,259 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="77">
+      <c r="O95" s="90">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="P95" s="90"/>
+      <c r="Q95" s="90"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="X96"/>
+      <c r="S96" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="V96" s="19">
+        <f>L19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="X97"/>
-      <c r="Y97" s="162" t="s">
+      <c r="U97" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="V97" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z97" s="162"/>
-      <c r="AA97" s="162"/>
+      <c r="Z97" s="78"/>
+      <c r="AA97" s="78"/>
     </row>
     <row r="98" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="Y98" s="162" t="s">
+      <c r="U98" s="82"/>
+      <c r="V98" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Z98" s="162" t="s">
+      <c r="W98" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="X98" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y98" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z98" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="AA98" s="162" t="s">
+      <c r="AA98" s="78" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="99" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="Y99" s="165">
-        <f>V92+1</f>
+      <c r="U99" s="82"/>
+      <c r="V99" s="80">
+        <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
+        <v>10</v>
+      </c>
+      <c r="W99" s="79">
+        <f>INDEX(Constante!$M$6:$M$17,V99)</f>
+        <v>30</v>
+      </c>
+      <c r="X99" s="79">
+        <f>INDEX(Constante!$N$6:$S$17,V99,1+V96)</f>
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="Y99" s="81">
+        <f>V99+1</f>
         <v>11</v>
       </c>
-      <c r="Z99" s="162">
+      <c r="Z99" s="78">
         <f>INDEX(Constante!$M$6:$M$17,Y99)</f>
         <v>50</v>
       </c>
-      <c r="AA99" s="162">
-        <f>INDEX(Constante!$N$6:$S$17,Y99,1+V89)</f>
+      <c r="AA99" s="78">
+        <f>INDEX(Constante!$N$6:$S$17,Y99,1+V96)</f>
         <v>0.255</v>
       </c>
+    </row>
+    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="U100" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="V100" s="23">
+        <f>(D93-W99)/(Z99-W99)</f>
+        <v>6.4166666666666747E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="U101" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V101" s="19">
+        <f>(1-V100)*X99+V100*AA99</f>
+        <v>0.24252222222222225</v>
+      </c>
+    </row>
+    <row r="103" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="X103"/>
+    </row>
+    <row r="104" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="X104"/>
     </row>
     <row r="105" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R105" s="169" t="s">
-        <v>17</v>
-      </c>
-      <c r="S105" s="172">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
-      <c r="T105" s="169" t="str">
-        <f>G11</f>
-        <v>N</v>
-      </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="76" t="s">
+      <c r="F106" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="R106" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="S106" s="172">
-        <f>H12</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="T106" s="169" t="str">
-        <f>K11</f>
-        <v>E</v>
-      </c>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F107" s="67" t="s">
+      <c r="F107" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="67" t="s">
+      <c r="G107" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H107" s="67" t="s">
+      <c r="H107" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F108" s="32">
         <f>INT(ABS(F109))</f>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G108" s="32">
         <f>INT(60*(ABS(F109)-F108))</f>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H108" s="33">
         <f>ABS(F109)-F108-G108/60</f>
-        <v>2.2420698266844008E-3</v>
+        <v>3.6633427136997798E-3</v>
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="78">
+      <c r="F109" s="92">
         <f>O95-F74</f>
-        <v>-3.8355754031600178</v>
-      </c>
-      <c r="G109" s="79"/>
-      <c r="H109" s="80"/>
-      <c r="J109" s="145">
+        <v>-22.4536633427137</v>
+      </c>
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
+      <c r="J109" s="95">
         <f>F109*60</f>
-        <v>-230.13452418960105</v>
-      </c>
-      <c r="K109" s="145"/>
-      <c r="L109" s="145" t="s">
+        <v>-1347.219800562822</v>
+      </c>
+      <c r="K109" s="95"/>
+      <c r="L109" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="145"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="168" t="s">
+      <c r="G112" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="168"/>
-      <c r="I112" s="168"/>
-      <c r="J112" s="169" t="s">
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="169">
+      <c r="K112" s="83">
         <f>ABS(I60)</f>
-        <v>6.4325833333333335</v>
-      </c>
-      <c r="L112" s="169" t="str">
+        <v>12.196262720526152</v>
+      </c>
+      <c r="L112" s="83" t="str">
         <f>L62</f>
-        <v>S</v>
-      </c>
-      <c r="M112" s="170" t="s">
+        <v>N</v>
+      </c>
+      <c r="M112" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="168" t="s">
+      <c r="N112" s="87"/>
+      <c r="O112" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="168"/>
-      <c r="Q112" s="168"/>
-    </row>
-    <row r="113" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G113" s="168"/>
-      <c r="H113" s="168"/>
-      <c r="I113" s="168"/>
-      <c r="J113" s="169" t="s">
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="S112" s="84">
+        <f>D12</f>
+        <v>48.875556000000003</v>
+      </c>
+      <c r="T112" s="83" t="str">
+        <f>G11</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="113" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="169">
+      <c r="K113" s="83">
         <f>ABS(I64)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="L113" s="169" t="str">
+      <c r="L113" s="83" t="str">
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="168"/>
-      <c r="P113" s="168"/>
-      <c r="Q113" s="168"/>
+      <c r="M113" s="86"/>
+      <c r="N113" s="87"/>
+      <c r="O113" s="85"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="S113" s="84">
+        <f>H12</f>
+        <v>2.0948030000000002</v>
+      </c>
+      <c r="T113" s="83" t="str">
+        <f>K11</f>
+        <v>E</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
+  <mergeCells count="99">
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="B9:C12"/>
     <mergeCell ref="D9:G9"/>
@@ -8320,12 +8415,71 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="F86:H86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8344,13 +8498,13 @@
           <x14:formula1>
             <xm:f>Constante!$D$15:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G11:G12 J32:J33 O32:O33 J49:J50 R42:R43</xm:sqref>
+          <xm:sqref>G11:G12 J32:J33 O32:O33 J49:J50 R49:R50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$D$12:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>J53:J54 J36:J37 O36:O37 K11:K12 R46:R47</xm:sqref>
+          <xm:sqref>J53:J54 J36:J37 O36:O37 K11:K12 R53:R54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8407,23 +8561,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -8433,14 +8587,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="151" t="s">
+      <c r="S3" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -8454,49 +8608,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="S4" s="152" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="S4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="76" t="s">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="S5" s="153" t="s">
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="S5" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -8535,14 +8689,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="154" t="s">
+      <c r="S6" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -8557,31 +8711,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="127">
+      <c r="B7" s="161">
         <v>9</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="163">
         <v>56</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="165">
         <v>42</v>
       </c>
-      <c r="E7" s="127">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
-        <v>0</v>
-      </c>
-      <c r="G7" s="131">
-        <v>0</v>
-      </c>
-      <c r="H7" s="127">
-        <v>0</v>
-      </c>
-      <c r="I7" s="129">
-        <v>0</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="E7" s="161">
+        <v>0</v>
+      </c>
+      <c r="F7" s="163">
+        <v>0</v>
+      </c>
+      <c r="G7" s="165">
+        <v>0</v>
+      </c>
+      <c r="H7" s="161">
+        <v>0</v>
+      </c>
+      <c r="I7" s="163">
+        <v>0</v>
+      </c>
+      <c r="J7" s="165">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -8596,14 +8750,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="145" t="s">
+      <c r="S7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -8622,51 +8776,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="140">
+      <c r="B8" s="162"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="149">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="S8" s="146" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="S8" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -8693,8 +8847,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -8704,7 +8858,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="155" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -8716,33 +8870,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="135">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="159">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="135">
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="159">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="142"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="100"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -8757,8 +8911,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -8773,46 +8927,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="148">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="113" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="119" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="119"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -8825,11 +8979,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -8842,21 +8996,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="123">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="120">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="105" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="106"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -8900,16 +9054,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="M26" s="86" t="s">
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="M26" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -8952,18 +9106,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="87">
+      <c r="G29" s="89">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="M29" s="87">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="M29" s="89">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -8973,11 +9127,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -9004,9 +9158,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -9016,7 +9170,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -9028,28 +9182,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="115" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82">
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="116">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="81"/>
-      <c r="L33" s="82">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="L33" s="116">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="81"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="115"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -9064,21 +9218,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="112"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -9105,9 +9259,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -9117,7 +9271,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="81" t="s">
+      <c r="J36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -9129,7 +9283,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="81" t="s">
+      <c r="O36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -9151,23 +9305,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82">
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="116">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="81"/>
-      <c r="L37" s="82">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="L37" s="116">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="81"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="115"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -9245,11 +9399,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -9304,12 +9458,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="87">
+      <c r="G46" s="89">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -9343,11 +9497,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9361,11 +9515,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="83" t="s">
+      <c r="L48" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9386,9 +9540,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -9398,13 +9552,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="115" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -9414,7 +9568,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="81" t="s">
+      <c r="R49" s="115" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -9425,27 +9579,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82">
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="116">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="81"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="115"/>
       <c r="K50"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="82">
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="116">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="81"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="115"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -9461,10 +9615,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -9479,11 +9633,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9497,11 +9651,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="83" t="s">
+      <c r="L52" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9522,9 +9676,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -9534,13 +9688,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -9550,7 +9704,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="81" t="s">
+      <c r="R53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -9568,27 +9722,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82">
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="116">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="81"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="115"/>
       <c r="K54"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="82">
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="116">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="81"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="115"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -9632,19 +9786,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98" t="s">
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -9656,23 +9810,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="91" t="s">
+      <c r="F60" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92">
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -9687,9 +9841,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -9708,29 +9862,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="88"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="90"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="108"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="91" t="s">
+      <c r="F64" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="93">
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="109">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -9745,9 +9899,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -9819,16 +9973,16 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="71" t="s">
+      <c r="T71" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="72"/>
+      <c r="U71" s="100"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -9924,19 +10078,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="77">
+      <c r="F74" s="90">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="75" t="s">
+      <c r="T74" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="75"/>
+      <c r="U74" s="101"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -9986,11 +10140,11 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -10026,10 +10180,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="71" t="s">
+      <c r="T84" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="72"/>
+      <c r="U84" s="100"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -10071,10 +10225,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="73" t="s">
+      <c r="T85" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="74"/>
+      <c r="U85" s="97"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -10088,12 +10242,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="85">
+      <c r="F86" s="98">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -10105,10 +10259,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="73" t="s">
+      <c r="T86" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="74"/>
+      <c r="U86" s="97"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -10125,10 +10279,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="73" t="s">
+      <c r="T87" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="74"/>
+      <c r="U87" s="97"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -10145,10 +10299,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="71" t="s">
+      <c r="T88" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="72"/>
+      <c r="U88" s="100"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -10217,11 +10371,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="76" t="s">
+      <c r="O92" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -10234,13 +10388,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="167" t="s">
+      <c r="W92" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="87" t="s">
+      <c r="X92" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="87">
+      <c r="Y92" s="89">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -10290,9 +10444,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="87"/>
-      <c r="X93" s="87"/>
-      <c r="Y93" s="87"/>
+      <c r="W93" s="89"/>
+      <c r="X93" s="89"/>
+      <c r="Y93" s="89"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -10332,9 +10486,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="87"/>
-      <c r="X94" s="87"/>
-      <c r="Y94" s="87"/>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -10342,12 +10496,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="77">
+      <c r="O95" s="90">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="P95" s="90"/>
+      <c r="Q95" s="90"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -10365,64 +10519,64 @@
       </c>
     </row>
     <row r="97" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U97" s="166" t="s">
+      <c r="U97" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="V97" s="163" t="s">
+      <c r="V97" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="W97" s="163"/>
-      <c r="X97" s="163"/>
-      <c r="Y97" s="162" t="s">
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z97" s="162"/>
-      <c r="AA97" s="162"/>
+      <c r="Z97" s="78"/>
+      <c r="AA97" s="78"/>
     </row>
     <row r="98" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U98" s="166"/>
-      <c r="V98" s="163" t="s">
+      <c r="U98" s="82"/>
+      <c r="V98" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="W98" s="163" t="s">
+      <c r="W98" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="X98" s="163" t="s">
+      <c r="X98" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Y98" s="162" t="s">
+      <c r="Y98" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="Z98" s="162" t="s">
+      <c r="Z98" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="AA98" s="162" t="s">
+      <c r="AA98" s="78" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="99" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U99" s="166"/>
-      <c r="V99" s="164">
+      <c r="U99" s="82"/>
+      <c r="V99" s="80">
         <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
         <v>10</v>
       </c>
-      <c r="W99" s="163">
+      <c r="W99" s="79">
         <f>INDEX(Constante!$M$6:$M$17,V99)</f>
         <v>30</v>
       </c>
-      <c r="X99" s="163">
+      <c r="X99" s="79">
         <f>INDEX(Constante!$N$6:$S$17,V99,1+V96)</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="Y99" s="165">
+      <c r="Y99" s="81">
         <f>V99+1</f>
         <v>11</v>
       </c>
-      <c r="Z99" s="162">
+      <c r="Z99" s="78">
         <f>INDEX(Constante!$M$6:$M$17,Y99)</f>
         <v>50</v>
       </c>
-      <c r="AA99" s="162">
+      <c r="AA99" s="78">
         <f>INDEX(Constante!$N$6:$S$17,Y99,1+V96)</f>
         <v>0.255</v>
       </c>
@@ -10457,11 +10611,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="76" t="s">
+      <c r="F106" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="67" t="s">
@@ -10489,164 +10643,113 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="78">
+      <c r="F109" s="92">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="79"/>
-      <c r="H109" s="80"/>
-      <c r="J109" s="145">
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
+      <c r="J109" s="95">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="145"/>
-      <c r="L109" s="145" t="s">
+      <c r="K109" s="95"/>
+      <c r="L109" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="145"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="168" t="s">
+      <c r="G112" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="168"/>
-      <c r="I112" s="168"/>
-      <c r="J112" s="169" t="s">
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="169">
+      <c r="K112" s="83">
         <f>ABS(I60)</f>
         <v>6.4325833333333335</v>
       </c>
-      <c r="L112" s="169" t="str">
+      <c r="L112" s="83" t="str">
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="168" t="s">
+      <c r="N112" s="87"/>
+      <c r="O112" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="168"/>
-      <c r="Q112" s="168"/>
-      <c r="R112" s="169" t="s">
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="S112" s="172">
+      <c r="S112" s="84">
         <f>D12</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="T112" s="169" t="str">
+      <c r="T112" s="83" t="str">
         <f>G11</f>
         <v>N</v>
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="168"/>
-      <c r="H113" s="168"/>
-      <c r="I113" s="168"/>
-      <c r="J113" s="169" t="s">
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="169">
+      <c r="K113" s="83">
         <f>ABS(I64)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="L113" s="169" t="str">
+      <c r="L113" s="83" t="str">
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="168"/>
-      <c r="P113" s="168"/>
-      <c r="Q113" s="168"/>
-      <c r="R113" s="169" t="s">
+      <c r="M113" s="86"/>
+      <c r="N113" s="87"/>
+      <c r="O113" s="85"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="172">
+      <c r="S113" s="84">
         <f>H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="T113" s="169" t="str">
+      <c r="T113" s="83" t="str">
         <f>K11</f>
         <v>E</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="S8:X8"/>
@@ -10657,25 +10760,76 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10757,23 +10911,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -10783,14 +10937,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="151" t="s">
+      <c r="S3" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -10804,49 +10958,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="S4" s="152" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="S4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="76" t="s">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="S5" s="153" t="s">
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="S5" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -10885,14 +11039,14 @@
       <c r="M6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="154" t="s">
+      <c r="S6" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10907,31 +11061,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="127">
+      <c r="B7" s="161">
         <v>9</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="163">
         <v>56</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="165">
         <v>42</v>
       </c>
-      <c r="E7" s="127">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
-        <v>0</v>
-      </c>
-      <c r="G7" s="131">
-        <v>0</v>
-      </c>
-      <c r="H7" s="127">
-        <v>0</v>
-      </c>
-      <c r="I7" s="129">
-        <v>0</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="E7" s="161">
+        <v>0</v>
+      </c>
+      <c r="F7" s="163">
+        <v>0</v>
+      </c>
+      <c r="G7" s="165">
+        <v>0</v>
+      </c>
+      <c r="H7" s="161">
+        <v>0</v>
+      </c>
+      <c r="I7" s="163">
+        <v>0</v>
+      </c>
+      <c r="J7" s="165">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -10946,14 +11100,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="145" t="s">
+      <c r="S7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -10972,51 +11126,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="140">
+      <c r="B8" s="162"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="149">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="S8" s="146" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="S8" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -11043,8 +11197,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -11054,7 +11208,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="155" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -11066,33 +11220,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="135">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="159">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="135">
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="159">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="142"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="100"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -11107,8 +11261,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11123,46 +11277,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="148">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="113" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="119" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="119"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -11175,11 +11329,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -11192,21 +11346,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="123">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="120">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="105" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="106"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -11250,16 +11404,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="M26" s="86" t="s">
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="M26" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -11302,18 +11456,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="87">
+      <c r="G29" s="89">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="M29" s="87">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="M29" s="89">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -11323,11 +11477,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -11354,9 +11508,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -11366,7 +11520,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -11378,28 +11532,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="115" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82">
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="116">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="81"/>
-      <c r="L33" s="82">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="L33" s="116">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="81"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="115"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -11414,21 +11568,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="112"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -11455,9 +11609,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -11467,7 +11621,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="81" t="s">
+      <c r="J36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -11479,7 +11633,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="81" t="s">
+      <c r="O36" s="115" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -11501,23 +11655,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82">
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="116">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="81"/>
-      <c r="L37" s="82">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="L37" s="116">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="81"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="115"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -11595,11 +11749,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -11654,12 +11808,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="87">
+      <c r="G46" s="89">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -11693,11 +11847,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11711,11 +11865,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="83" t="s">
+      <c r="L48" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11736,9 +11890,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -11748,13 +11902,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="115" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -11764,7 +11918,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="81" t="s">
+      <c r="R49" s="115" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -11775,27 +11929,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82">
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="116">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="81"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="115"/>
       <c r="K50"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="82">
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="116">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="81"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="115"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -11811,10 +11965,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -11829,11 +11983,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -11847,11 +12001,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="83" t="s">
+      <c r="L52" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -11872,9 +12026,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -11884,13 +12038,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -11900,7 +12054,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="81" t="s">
+      <c r="R53" s="115" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -11918,27 +12072,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82">
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="116">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="81"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="115"/>
       <c r="K54"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="82">
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="116">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="81"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="115"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -11982,19 +12136,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98" t="s">
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
       <c r="L58" s="58" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -12006,23 +12160,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="91" t="s">
+      <c r="F60" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92">
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
       <c r="I61" s="17" t="s">
         <v>13</v>
       </c>
@@ -12037,9 +12191,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -12058,29 +12212,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="88"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="90"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="108"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="91" t="s">
+      <c r="F64" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="93">
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="109">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
       <c r="I65" s="17" t="s">
         <v>13</v>
       </c>
@@ -12095,9 +12249,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -12169,16 +12323,16 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="71" t="s">
+      <c r="T71" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="72"/>
+      <c r="U71" s="100"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12274,19 +12428,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="77">
+      <c r="F74" s="90">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="75" t="s">
+      <c r="T74" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="75"/>
+      <c r="U74" s="101"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -12336,11 +12490,11 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -12376,10 +12530,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="71" t="s">
+      <c r="T84" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="72"/>
+      <c r="U84" s="100"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12421,10 +12575,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="73" t="s">
+      <c r="T85" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="74"/>
+      <c r="U85" s="97"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -12438,12 +12592,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="85">
+      <c r="F86" s="98">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -12455,10 +12609,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="73" t="s">
+      <c r="T86" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="74"/>
+      <c r="U86" s="97"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -12475,10 +12629,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="73" t="s">
+      <c r="T87" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="74"/>
+      <c r="U87" s="97"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -12495,10 +12649,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="71" t="s">
+      <c r="T88" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="72"/>
+      <c r="U88" s="100"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -12567,11 +12721,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="76" t="s">
+      <c r="O92" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -12584,13 +12738,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="167" t="s">
+      <c r="W92" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="87" t="s">
+      <c r="X92" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="87">
+      <c r="Y92" s="89">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -12640,9 +12794,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="87"/>
-      <c r="X93" s="87"/>
-      <c r="Y93" s="87"/>
+      <c r="W93" s="89"/>
+      <c r="X93" s="89"/>
+      <c r="Y93" s="89"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -12682,9 +12836,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="87"/>
-      <c r="X94" s="87"/>
-      <c r="Y94" s="87"/>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -12692,12 +12846,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="77">
+      <c r="O95" s="90">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="P95" s="90"/>
+      <c r="Q95" s="90"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -12715,64 +12869,64 @@
       </c>
     </row>
     <row r="97" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U97" s="166" t="s">
+      <c r="U97" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="V97" s="163" t="s">
+      <c r="V97" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="W97" s="163"/>
-      <c r="X97" s="163"/>
-      <c r="Y97" s="162" t="s">
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z97" s="162"/>
-      <c r="AA97" s="162"/>
+      <c r="Z97" s="78"/>
+      <c r="AA97" s="78"/>
     </row>
     <row r="98" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U98" s="166"/>
-      <c r="V98" s="163" t="s">
+      <c r="U98" s="82"/>
+      <c r="V98" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="W98" s="163" t="s">
+      <c r="W98" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="X98" s="163" t="s">
+      <c r="X98" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Y98" s="162" t="s">
+      <c r="Y98" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="Z98" s="162" t="s">
+      <c r="Z98" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="AA98" s="162" t="s">
+      <c r="AA98" s="78" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="99" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U99" s="166"/>
-      <c r="V99" s="164">
+      <c r="U99" s="82"/>
+      <c r="V99" s="80">
         <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
         <v>10</v>
       </c>
-      <c r="W99" s="163">
+      <c r="W99" s="79">
         <f>INDEX(Constante!$M$6:$M$17,V99)</f>
         <v>30</v>
       </c>
-      <c r="X99" s="163">
+      <c r="X99" s="79">
         <f>INDEX(Constante!$N$6:$S$17,V99,1+V96)</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="Y99" s="165">
+      <c r="Y99" s="81">
         <f>V99+1</f>
         <v>11</v>
       </c>
-      <c r="Z99" s="162">
+      <c r="Z99" s="78">
         <f>INDEX(Constante!$M$6:$M$17,Y99)</f>
         <v>50</v>
       </c>
-      <c r="AA99" s="162">
+      <c r="AA99" s="78">
         <f>INDEX(Constante!$N$6:$S$17,Y99,1+V96)</f>
         <v>0.255</v>
       </c>
@@ -12807,11 +12961,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="76" t="s">
+      <c r="F106" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="17" t="s">
@@ -12839,109 +12993,156 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="78">
+      <c r="F109" s="92">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="79"/>
-      <c r="H109" s="80"/>
-      <c r="J109" s="145">
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
+      <c r="J109" s="95">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="145"/>
-      <c r="L109" s="145" t="s">
+      <c r="K109" s="95"/>
+      <c r="L109" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="145"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="168" t="s">
+      <c r="G112" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="168"/>
-      <c r="I112" s="168"/>
-      <c r="J112" s="169" t="s">
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="169">
+      <c r="K112" s="83">
         <f>ABS(I60)</f>
         <v>6.4325833333333335</v>
       </c>
-      <c r="L112" s="169" t="str">
+      <c r="L112" s="83" t="str">
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="168" t="s">
+      <c r="N112" s="87"/>
+      <c r="O112" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="168"/>
-      <c r="Q112" s="168"/>
-      <c r="R112" s="169" t="s">
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="S112" s="172">
+      <c r="S112" s="84">
         <f>D12</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="T112" s="169" t="str">
+      <c r="T112" s="83" t="str">
         <f>G11</f>
         <v>N</v>
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="168"/>
-      <c r="H113" s="168"/>
-      <c r="I113" s="168"/>
-      <c r="J113" s="169" t="s">
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="169">
+      <c r="K113" s="83">
         <f>ABS(I64)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="L113" s="169" t="str">
+      <c r="L113" s="83" t="str">
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="168"/>
-      <c r="P113" s="168"/>
-      <c r="Q113" s="168"/>
-      <c r="R113" s="169" t="s">
+      <c r="M113" s="86"/>
+      <c r="N113" s="87"/>
+      <c r="O113" s="85"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="172">
+      <c r="S113" s="84">
         <f>H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="T113" s="169" t="str">
+      <c r="T113" s="83" t="str">
         <f>K11</f>
         <v>E</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="B9:C12"/>
@@ -12958,74 +13159,27 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="W92:W94"/>
     <mergeCell ref="O92:Q92"/>
     <mergeCell ref="O95:Q95"/>
     <mergeCell ref="F106:H106"/>
     <mergeCell ref="F109:H109"/>
     <mergeCell ref="J109:K109"/>
     <mergeCell ref="L109:M109"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T84:U84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13115,16 +13269,16 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="157"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="175"/>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
@@ -13141,16 +13295,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="159" t="s">
+      <c r="M4" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="158" t="s">
+      <c r="N4" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
       <c r="S4" s="7"/>
       <c r="T4" s="6"/>
     </row>
@@ -13164,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="159"/>
+      <c r="M5" s="176"/>
       <c r="N5" s="8">
         <v>0</v>
       </c>
@@ -13197,7 +13351,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="160">
+      <c r="M6" s="76">
         <v>0</v>
       </c>
       <c r="N6" s="8">
@@ -13232,7 +13386,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="160">
+      <c r="M7" s="76">
         <v>6</v>
       </c>
       <c r="N7" s="8">
@@ -13267,7 +13421,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="160">
+      <c r="M8" s="76">
         <v>7</v>
       </c>
       <c r="N8" s="8">
@@ -13298,7 +13452,7 @@
         <v>26</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="160">
+      <c r="M9" s="76">
         <v>8</v>
       </c>
       <c r="N9" s="8">
@@ -13325,7 +13479,7 @@
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="L10" s="6"/>
-      <c r="M10" s="160">
+      <c r="M10" s="76">
         <v>9</v>
       </c>
       <c r="N10" s="8">
@@ -13352,7 +13506,7 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="L11" s="6"/>
-      <c r="M11" s="160">
+      <c r="M11" s="76">
         <v>10</v>
       </c>
       <c r="N11" s="8">
@@ -13403,7 +13557,7 @@
         <v>-1</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="160">
+      <c r="M12" s="76">
         <v>12</v>
       </c>
       <c r="N12" s="8">
@@ -13450,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="160">
+      <c r="M13" s="76">
         <v>15</v>
       </c>
       <c r="N13" s="8">
@@ -13479,7 +13633,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="160">
+      <c r="M14" s="76">
         <v>20</v>
       </c>
       <c r="N14" s="8">
@@ -13521,7 +13675,7 @@
         <v>29</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="160">
+      <c r="M15" s="76">
         <v>30</v>
       </c>
       <c r="N15" s="8">
@@ -13561,7 +13715,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="160">
+      <c r="M16" s="76">
         <v>50</v>
       </c>
       <c r="N16" s="8">
@@ -13588,7 +13742,7 @@
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="L17" s="6"/>
-      <c r="M17" s="160">
+      <c r="M17" s="76">
         <v>90</v>
       </c>
       <c r="N17" s="8">
@@ -13631,10 +13785,10 @@
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="161" t="s">
+      <c r="P19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="161">
+      <c r="Q19" s="77">
         <v>-0.26666666666</v>
       </c>
       <c r="R19" s="6"/>
@@ -13642,10 +13796,10 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P20" s="161" t="s">
+      <c r="P20" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="161">
+      <c r="Q20" s="77">
         <v>-0.53333333333300004</v>
       </c>
     </row>

--- a/NavAstro/XLS/SondeMAK.xlsx
+++ b/NavAstro/XLS/SondeMAK.xlsx
@@ -1153,7 +1153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="129">
   <si>
     <t>a. Par le nautical almanach (par interval horaire)</t>
   </si>
@@ -1544,6 +1544,9 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Meridienne Soleil</t>
   </si>
 </sst>
 </file>
@@ -2664,6 +2667,258 @@
     <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="41" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="42" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="43" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="44" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2675,258 +2930,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="44" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="41" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="42" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="43" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="13" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3840,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
@@ -3861,23 +3864,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -3887,14 +3890,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="169" t="s">
+      <c r="S3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -3908,49 +3911,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="S4" s="171" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="S4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -3989,14 +3992,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4011,31 +4014,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="161">
+      <c r="B7" s="94">
         <v>9</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="96">
         <v>56</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="98">
         <v>42</v>
       </c>
-      <c r="E7" s="161">
-        <v>0</v>
-      </c>
-      <c r="F7" s="163">
-        <v>0</v>
-      </c>
-      <c r="G7" s="165">
-        <v>0</v>
-      </c>
-      <c r="H7" s="161">
-        <v>0</v>
-      </c>
-      <c r="I7" s="163">
-        <v>0</v>
-      </c>
-      <c r="J7" s="165">
+      <c r="E7" s="94">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -4050,14 +4053,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -4076,51 +4079,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="149">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="101">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="S8" s="150" t="s">
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="S8" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -4147,8 +4150,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -4158,7 +4161,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -4170,33 +4173,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="114" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="159">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="116">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="159">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="116">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -4211,8 +4214,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -4227,46 +4230,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="139" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="118" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -4279,11 +4282,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -4296,21 +4299,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="120">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="140">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="143"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -4354,16 +4357,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="M26" s="117" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="M26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -4406,18 +4409,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="89">
+      <c r="G29" s="102">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="M29" s="89">
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="M29" s="102">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -4427,11 +4430,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -4458,9 +4461,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="146" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -4482,28 +4485,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="146" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="116">
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="147">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="L33" s="116">
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="146"/>
+      <c r="L33" s="147">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="115"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="146"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -4518,21 +4521,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="112"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -4559,9 +4562,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -4571,7 +4574,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -4583,7 +4586,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="115" t="s">
+      <c r="O36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -4605,23 +4608,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="116">
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="147">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="L37" s="116">
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="146"/>
+      <c r="L37" s="147">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="115"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="146"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -4699,11 +4702,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -4758,12 +4761,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="89">
+      <c r="G46" s="102">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -4797,11 +4800,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4815,11 +4818,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="113" t="s">
+      <c r="L48" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4840,9 +4843,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -4852,13 +4855,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="146" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -4868,7 +4871,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="115" t="s">
+      <c r="R49" s="146" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -4879,27 +4882,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="116">
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="147">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="115"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="146"/>
       <c r="K50"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="116">
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="147">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="115"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="146"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -4915,10 +4918,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="150"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -4933,11 +4936,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4951,11 +4954,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="113" t="s">
+      <c r="L52" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4976,9 +4979,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -4988,13 +4991,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -5004,7 +5007,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="115" t="s">
+      <c r="R53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -5022,27 +5025,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="116">
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="147">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="115"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="146"/>
       <c r="K54"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="116">
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="147">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="115"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -5086,19 +5089,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103" t="s">
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -5110,23 +5113,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="105">
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="156">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -5141,9 +5144,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -5162,29 +5165,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="106"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="108"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="159"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="104" t="s">
+      <c r="F64" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="109">
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="160">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -5199,9 +5202,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -5279,10 +5282,10 @@
       <c r="G71" s="91"/>
       <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="99" t="s">
+      <c r="T71" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="100"/>
+      <c r="U71" s="152"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -5378,19 +5381,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="90">
+      <c r="F74" s="161">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="101" t="s">
+      <c r="T74" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="101"/>
+      <c r="U74" s="162"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -5480,10 +5483,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="99" t="s">
+      <c r="T84" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="100"/>
+      <c r="U84" s="152"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -5525,10 +5528,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="96" t="s">
+      <c r="T85" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="97"/>
+      <c r="U85" s="164"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -5542,12 +5545,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="98">
+      <c r="F86" s="165">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -5559,10 +5562,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="96" t="s">
+      <c r="T86" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="97"/>
+      <c r="U86" s="164"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -5579,10 +5582,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="96" t="s">
+      <c r="T87" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="97"/>
+      <c r="U87" s="164"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -5599,10 +5602,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="99" t="s">
+      <c r="T88" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="100"/>
+      <c r="U88" s="152"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -5688,13 +5691,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="88" t="s">
+      <c r="W92" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="89" t="s">
+      <c r="X92" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="89">
+      <c r="Y92" s="102">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -5744,9 +5747,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="89"/>
-      <c r="X93" s="89"/>
-      <c r="Y93" s="89"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -5786,9 +5789,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -5796,12 +5799,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="90">
+      <c r="O95" s="161">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="90"/>
-      <c r="Q95" s="90"/>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -5943,28 +5946,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="92">
+      <c r="F109" s="166">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="93"/>
-      <c r="H109" s="94"/>
-      <c r="J109" s="95">
+      <c r="G109" s="167"/>
+      <c r="H109" s="168"/>
+      <c r="J109" s="100">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="95"/>
-      <c r="L109" s="95" t="s">
+      <c r="K109" s="100"/>
+      <c r="L109" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="95"/>
+      <c r="M109" s="100"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="85" t="s">
+      <c r="G112" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
+      <c r="H112" s="169"/>
+      <c r="I112" s="169"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -5976,15 +5979,15 @@
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="86" t="s">
+      <c r="M112" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="87"/>
-      <c r="O112" s="85" t="s">
+      <c r="N112" s="171"/>
+      <c r="O112" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
+      <c r="P112" s="169"/>
+      <c r="Q112" s="169"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -5998,9 +6001,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="169"/>
+      <c r="I113" s="169"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -6012,11 +6015,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="86"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="85"/>
-      <c r="P113" s="85"/>
-      <c r="Q113" s="85"/>
+      <c r="M113" s="170"/>
+      <c r="N113" s="171"/>
+      <c r="O113" s="169"/>
+      <c r="P113" s="169"/>
+      <c r="Q113" s="169"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -6031,15 +6034,83 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="S6:X6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -6053,83 +6124,15 @@
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="S8:X8"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="S5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6190,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,23 +6214,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
+      <c r="B2" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -6237,14 +6240,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="169" t="s">
+      <c r="S3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -6258,49 +6261,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="S4" s="171" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="S4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -6339,14 +6342,14 @@
       <c r="M6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6361,31 +6364,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="161">
+      <c r="B7" s="94">
         <v>9</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="96">
         <v>56</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="98">
         <v>42</v>
       </c>
-      <c r="E7" s="161">
-        <v>0</v>
-      </c>
-      <c r="F7" s="163">
-        <v>0</v>
-      </c>
-      <c r="G7" s="165">
-        <v>0</v>
-      </c>
-      <c r="H7" s="161">
-        <v>0</v>
-      </c>
-      <c r="I7" s="163">
-        <v>0</v>
-      </c>
-      <c r="J7" s="165">
+      <c r="E7" s="94">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -6400,14 +6403,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -6426,51 +6429,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="149">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="101">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="S8" s="150" t="s">
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="S8" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -6497,8 +6500,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -6508,7 +6511,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -6520,33 +6523,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="114" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="159">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="116">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="159">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="116">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -6561,8 +6564,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -6577,46 +6580,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="139" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="118" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -6629,11 +6632,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -6646,21 +6649,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="120">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="140">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="143"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -6704,16 +6707,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="M26" s="117" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="M26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -6756,18 +6759,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="89">
+      <c r="G29" s="102">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="M29" s="89">
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="M29" s="102">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -6777,11 +6780,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -6808,9 +6811,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -6820,7 +6823,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="146" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -6832,28 +6835,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="146" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="116">
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="147">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="L33" s="116">
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="146"/>
+      <c r="L33" s="147">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="115"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="146"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -6868,21 +6871,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="112"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -6909,9 +6912,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -6933,7 +6936,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="115" t="s">
+      <c r="O36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -6955,23 +6958,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="116">
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="147">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="L37" s="116">
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="146"/>
+      <c r="L37" s="147">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="115"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="146"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -7049,11 +7052,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -7108,12 +7111,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="89">
+      <c r="G46" s="102">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -7147,11 +7150,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7165,11 +7168,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="113" t="s">
+      <c r="L48" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7190,9 +7193,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -7202,13 +7205,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="146" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -7218,7 +7221,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="115" t="s">
+      <c r="R49" s="146" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -7229,27 +7232,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="116">
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="147">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="115"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="146"/>
       <c r="K50"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="116">
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="147">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="115"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="146"/>
       <c r="T50" s="19" t="s">
         <v>127</v>
       </c>
@@ -7265,10 +7268,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="150"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -7283,11 +7286,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -7301,11 +7304,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="113" t="s">
+      <c r="L52" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -7326,9 +7329,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -7338,13 +7341,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -7354,7 +7357,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="115" t="s">
+      <c r="R53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -7372,27 +7375,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="116">
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="147">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="115"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="146"/>
       <c r="K54"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="116">
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="147">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="115"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -7436,19 +7439,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103" t="s">
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="71" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -7460,23 +7463,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="105">
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="156">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>12.196262720526152</v>
       </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
       <c r="I61" s="75" t="s">
         <v>13</v>
       </c>
@@ -7491,9 +7494,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>12</v>
@@ -7512,29 +7515,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="106"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="108"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="159"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="104" t="s">
+      <c r="F64" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="109">
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="160">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="75" t="s">
         <v>13</v>
       </c>
@@ -7549,9 +7552,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -7629,10 +7632,10 @@
       <c r="G71" s="91"/>
       <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="99" t="s">
+      <c r="T71" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="100"/>
+      <c r="U71" s="152"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>0.21286494091142236</v>
@@ -7728,19 +7731,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="90">
+      <c r="F74" s="161">
         <f>V74/Constante!$D$19</f>
         <v>53.279518898269259</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="101" t="s">
+      <c r="T74" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="101"/>
+      <c r="U74" s="162"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.92990302865334029</v>
@@ -7830,10 +7833,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="99" t="s">
+      <c r="T84" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="100"/>
+      <c r="U84" s="152"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>0.21286494091142236</v>
@@ -7875,10 +7878,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="96" t="s">
+      <c r="T85" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="97"/>
+      <c r="U85" s="164"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>0.21126104128624015</v>
@@ -7892,12 +7895,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="98">
+      <c r="F86" s="165">
         <f>V88/Constante!$D$19</f>
         <v>176.5742656967652</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -7909,10 +7912,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="96" t="s">
+      <c r="T86" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="97"/>
+      <c r="U86" s="164"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.60380289607311577</v>
@@ -7929,10 +7932,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="96" t="s">
+      <c r="T87" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="97"/>
+      <c r="U87" s="164"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.39324454744956178</v>
@@ -7949,10 +7952,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="99" t="s">
+      <c r="T88" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="100"/>
+      <c r="U88" s="152"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0818023106998318</v>
@@ -8038,13 +8041,13 @@
       <c r="V92" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="88" t="s">
+      <c r="W92" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="89" t="s">
+      <c r="X92" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="89">
+      <c r="Y92" s="102">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -8094,9 +8097,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="89"/>
-      <c r="X93" s="89"/>
-      <c r="Y93" s="89"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -8136,9 +8139,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -8146,12 +8149,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="90">
+      <c r="O95" s="161">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="90"/>
-      <c r="Q95" s="90"/>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -8293,28 +8296,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="92">
+      <c r="F109" s="166">
         <f>O95-F74</f>
         <v>-22.4536633427137</v>
       </c>
-      <c r="G109" s="93"/>
-      <c r="H109" s="94"/>
-      <c r="J109" s="95">
+      <c r="G109" s="167"/>
+      <c r="H109" s="168"/>
+      <c r="J109" s="100">
         <f>F109*60</f>
         <v>-1347.219800562822</v>
       </c>
-      <c r="K109" s="95"/>
-      <c r="L109" s="95" t="s">
+      <c r="K109" s="100"/>
+      <c r="L109" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="95"/>
+      <c r="M109" s="100"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="85" t="s">
+      <c r="G112" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
+      <c r="H112" s="169"/>
+      <c r="I112" s="169"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -8326,15 +8329,15 @@
         <f>L62</f>
         <v>N</v>
       </c>
-      <c r="M112" s="86" t="s">
+      <c r="M112" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="87"/>
-      <c r="O112" s="85" t="s">
+      <c r="N112" s="171"/>
+      <c r="O112" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
+      <c r="P112" s="169"/>
+      <c r="Q112" s="169"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -8348,9 +8351,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="169"/>
+      <c r="I113" s="169"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -8362,11 +8365,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="86"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="85"/>
-      <c r="P113" s="85"/>
-      <c r="Q113" s="85"/>
+      <c r="M113" s="170"/>
+      <c r="N113" s="171"/>
+      <c r="O113" s="169"/>
+      <c r="P113" s="169"/>
+      <c r="Q113" s="169"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -8381,45 +8384,50 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="L34:O34"/>
     <mergeCell ref="L16:M16"/>
@@ -8430,56 +8438,51 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="T71:U71"/>
     <mergeCell ref="T74:U74"/>
     <mergeCell ref="T84:U84"/>
     <mergeCell ref="T85:U85"/>
     <mergeCell ref="T86:U86"/>
     <mergeCell ref="T87:U87"/>
     <mergeCell ref="T88:U88"/>
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="F86:H86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8561,23 +8564,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -8587,14 +8590,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="169" t="s">
+      <c r="S3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -8608,49 +8611,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="S4" s="171" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="S4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -8689,14 +8692,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -8711,31 +8714,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="161">
+      <c r="B7" s="94">
         <v>9</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="96">
         <v>56</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="98">
         <v>42</v>
       </c>
-      <c r="E7" s="161">
-        <v>0</v>
-      </c>
-      <c r="F7" s="163">
-        <v>0</v>
-      </c>
-      <c r="G7" s="165">
-        <v>0</v>
-      </c>
-      <c r="H7" s="161">
-        <v>0</v>
-      </c>
-      <c r="I7" s="163">
-        <v>0</v>
-      </c>
-      <c r="J7" s="165">
+      <c r="E7" s="94">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -8750,14 +8753,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -8776,51 +8779,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="149">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="101">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="S8" s="150" t="s">
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="S8" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -8847,8 +8850,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -8858,7 +8861,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -8870,33 +8873,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="114" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="159">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="116">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="159">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="116">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -8911,8 +8914,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -8927,46 +8930,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="139" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="118" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -8979,11 +8982,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -8996,21 +8999,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="120">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="140">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="143"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -9054,16 +9057,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="M26" s="117" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="M26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -9106,18 +9109,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="89">
+      <c r="G29" s="102">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="M29" s="89">
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="M29" s="102">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -9127,11 +9130,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -9158,9 +9161,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -9170,7 +9173,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="146" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -9182,28 +9185,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="146" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="116">
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="147">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="L33" s="116">
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="146"/>
+      <c r="L33" s="147">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="115"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="146"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -9218,21 +9221,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="112"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -9259,9 +9262,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -9271,7 +9274,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -9283,7 +9286,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="115" t="s">
+      <c r="O36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -9305,23 +9308,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="116">
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="147">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="L37" s="116">
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="146"/>
+      <c r="L37" s="147">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="115"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="146"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -9399,11 +9402,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -9458,12 +9461,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="89">
+      <c r="G46" s="102">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -9497,11 +9500,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9515,11 +9518,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="113" t="s">
+      <c r="L48" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9540,9 +9543,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -9552,13 +9555,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="146" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -9568,7 +9571,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="115" t="s">
+      <c r="R49" s="146" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -9579,27 +9582,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="116">
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="147">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="115"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="146"/>
       <c r="K50"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="116">
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="147">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="115"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="146"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -9615,10 +9618,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="150"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -9633,11 +9636,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9651,11 +9654,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="113" t="s">
+      <c r="L52" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9676,9 +9679,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -9688,13 +9691,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -9704,7 +9707,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="115" t="s">
+      <c r="R53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -9722,27 +9725,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="116">
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="147">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="115"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="146"/>
       <c r="K54"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="116">
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="147">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="115"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -9786,19 +9789,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103" t="s">
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -9810,23 +9813,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="105">
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="156">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -9841,9 +9844,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -9862,29 +9865,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="106"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="108"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="159"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="104" t="s">
+      <c r="F64" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="109">
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="160">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -9899,9 +9902,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -9979,10 +9982,10 @@
       <c r="G71" s="91"/>
       <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="99" t="s">
+      <c r="T71" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="100"/>
+      <c r="U71" s="152"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -10078,19 +10081,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="90">
+      <c r="F74" s="161">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="101" t="s">
+      <c r="T74" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="101"/>
+      <c r="U74" s="162"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -10180,10 +10183,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="99" t="s">
+      <c r="T84" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="100"/>
+      <c r="U84" s="152"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -10225,10 +10228,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="96" t="s">
+      <c r="T85" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="97"/>
+      <c r="U85" s="164"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -10242,12 +10245,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="98">
+      <c r="F86" s="165">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -10259,10 +10262,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="96" t="s">
+      <c r="T86" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="97"/>
+      <c r="U86" s="164"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -10279,10 +10282,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="96" t="s">
+      <c r="T87" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="97"/>
+      <c r="U87" s="164"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -10299,10 +10302,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="99" t="s">
+      <c r="T88" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="100"/>
+      <c r="U88" s="152"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -10388,13 +10391,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="88" t="s">
+      <c r="W92" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="89" t="s">
+      <c r="X92" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="89">
+      <c r="Y92" s="102">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -10444,9 +10447,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="89"/>
-      <c r="X93" s="89"/>
-      <c r="Y93" s="89"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -10486,9 +10489,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -10496,12 +10499,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="90">
+      <c r="O95" s="161">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="90"/>
-      <c r="Q95" s="90"/>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -10643,28 +10646,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="92">
+      <c r="F109" s="166">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="93"/>
-      <c r="H109" s="94"/>
-      <c r="J109" s="95">
+      <c r="G109" s="167"/>
+      <c r="H109" s="168"/>
+      <c r="J109" s="100">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="95"/>
-      <c r="L109" s="95" t="s">
+      <c r="K109" s="100"/>
+      <c r="L109" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="95"/>
+      <c r="M109" s="100"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="85" t="s">
+      <c r="G112" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
+      <c r="H112" s="169"/>
+      <c r="I112" s="169"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -10676,15 +10679,15 @@
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="86" t="s">
+      <c r="M112" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="87"/>
-      <c r="O112" s="85" t="s">
+      <c r="N112" s="171"/>
+      <c r="O112" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
+      <c r="P112" s="169"/>
+      <c r="Q112" s="169"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -10698,9 +10701,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="169"/>
+      <c r="I113" s="169"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -10712,11 +10715,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="86"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="85"/>
-      <c r="P113" s="85"/>
-      <c r="Q113" s="85"/>
+      <c r="M113" s="170"/>
+      <c r="N113" s="171"/>
+      <c r="O113" s="169"/>
+      <c r="P113" s="169"/>
+      <c r="Q113" s="169"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -10731,15 +10734,83 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="F64:H66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="S6:X6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -10753,83 +10824,15 @@
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="S8:X8"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="S5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10911,23 +10914,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -10937,14 +10940,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="169" t="s">
+      <c r="S3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -10958,49 +10961,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="S4" s="171" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="S4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="91" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -11039,14 +11042,14 @@
       <c r="M6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -11061,31 +11064,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="161">
+      <c r="B7" s="94">
         <v>9</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="96">
         <v>56</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="98">
         <v>42</v>
       </c>
-      <c r="E7" s="161">
-        <v>0</v>
-      </c>
-      <c r="F7" s="163">
-        <v>0</v>
-      </c>
-      <c r="G7" s="165">
-        <v>0</v>
-      </c>
-      <c r="H7" s="161">
-        <v>0</v>
-      </c>
-      <c r="I7" s="163">
-        <v>0</v>
-      </c>
-      <c r="J7" s="165">
+      <c r="E7" s="94">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -11100,14 +11103,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -11126,51 +11129,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="149">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="101">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="S8" s="150" t="s">
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="S8" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -11197,8 +11200,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -11208,7 +11211,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -11220,33 +11223,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="114" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="159">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="116">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="159">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="116">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -11261,8 +11264,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11277,46 +11280,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="139" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="118" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="139"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -11329,11 +11332,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -11346,21 +11349,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="120">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="140">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="143"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -11404,16 +11407,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="M26" s="117" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="M26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -11456,18 +11459,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="89">
+      <c r="G29" s="102">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="M29" s="89">
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="M29" s="102">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -11477,11 +11480,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -11508,9 +11511,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -11520,7 +11523,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="146" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -11532,28 +11535,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="146" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="116">
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="147">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="L33" s="116">
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="146"/>
+      <c r="L33" s="147">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="115"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="146"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -11568,21 +11571,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="112"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -11609,9 +11612,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -11621,7 +11624,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -11633,7 +11636,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="115" t="s">
+      <c r="O36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -11655,23 +11658,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="116">
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="147">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="L37" s="116">
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="146"/>
+      <c r="L37" s="147">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="115"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="146"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -11749,11 +11752,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -11808,12 +11811,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="89">
+      <c r="G46" s="102">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -11847,11 +11850,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11865,11 +11868,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="113" t="s">
+      <c r="L48" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11890,9 +11893,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -11902,13 +11905,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="146" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -11918,7 +11921,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="115" t="s">
+      <c r="R49" s="146" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -11929,27 +11932,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="116">
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="147">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="115"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="146"/>
       <c r="K50"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="116">
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="147">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="115"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="146"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -11965,10 +11968,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="150"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -11983,11 +11986,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -12001,11 +12004,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="113" t="s">
+      <c r="L52" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -12026,9 +12029,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -12038,13 +12041,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -12054,7 +12057,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="115" t="s">
+      <c r="R53" s="146" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -12072,27 +12075,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="116">
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="147">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="115"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="146"/>
       <c r="K54"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="116">
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="147">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="115"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -12136,19 +12139,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103" t="s">
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="58" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -12160,23 +12163,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="105">
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="156">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
       <c r="I61" s="17" t="s">
         <v>13</v>
       </c>
@@ -12191,9 +12194,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -12212,29 +12215,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="106"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="108"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="159"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="104" t="s">
+      <c r="F64" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="109">
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="160">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="17" t="s">
         <v>13</v>
       </c>
@@ -12249,9 +12252,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -12329,10 +12332,10 @@
       <c r="G71" s="91"/>
       <c r="H71" s="91"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="99" t="s">
+      <c r="T71" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="100"/>
+      <c r="U71" s="152"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12428,19 +12431,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="90">
+      <c r="F74" s="161">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="101" t="s">
+      <c r="T74" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="101"/>
+      <c r="U74" s="162"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -12530,10 +12533,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="99" t="s">
+      <c r="T84" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="100"/>
+      <c r="U84" s="152"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12575,10 +12578,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="96" t="s">
+      <c r="T85" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="97"/>
+      <c r="U85" s="164"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -12592,12 +12595,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="98">
+      <c r="F86" s="165">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -12609,10 +12612,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="96" t="s">
+      <c r="T86" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="97"/>
+      <c r="U86" s="164"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -12629,10 +12632,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="96" t="s">
+      <c r="T87" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="97"/>
+      <c r="U87" s="164"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -12649,10 +12652,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="99" t="s">
+      <c r="T88" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="100"/>
+      <c r="U88" s="152"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -12738,13 +12741,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="88" t="s">
+      <c r="W92" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="89" t="s">
+      <c r="X92" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="89">
+      <c r="Y92" s="102">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -12794,9 +12797,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="89"/>
-      <c r="X93" s="89"/>
-      <c r="Y93" s="89"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -12836,9 +12839,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -12846,12 +12849,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="90">
+      <c r="O95" s="161">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="90"/>
-      <c r="Q95" s="90"/>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -12993,28 +12996,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="92">
+      <c r="F109" s="166">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="93"/>
-      <c r="H109" s="94"/>
-      <c r="J109" s="95">
+      <c r="G109" s="167"/>
+      <c r="H109" s="168"/>
+      <c r="J109" s="100">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="95"/>
-      <c r="L109" s="95" t="s">
+      <c r="K109" s="100"/>
+      <c r="L109" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="95"/>
+      <c r="M109" s="100"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="85" t="s">
+      <c r="G112" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
+      <c r="H112" s="169"/>
+      <c r="I112" s="169"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -13026,15 +13029,15 @@
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="86" t="s">
+      <c r="M112" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="87"/>
-      <c r="O112" s="85" t="s">
+      <c r="N112" s="171"/>
+      <c r="O112" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
+      <c r="P112" s="169"/>
+      <c r="Q112" s="169"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -13048,9 +13051,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="169"/>
+      <c r="I113" s="169"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -13062,11 +13065,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="86"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="85"/>
-      <c r="P113" s="85"/>
-      <c r="Q113" s="85"/>
+      <c r="M113" s="170"/>
+      <c r="N113" s="171"/>
+      <c r="O113" s="169"/>
+      <c r="P113" s="169"/>
+      <c r="Q113" s="169"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -13081,18 +13084,77 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="M112:N113"/>
+    <mergeCell ref="O112:Q113"/>
+    <mergeCell ref="G112:I113"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B16:D19"/>
+    <mergeCell ref="E16:F19"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="F60:H62"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="F74:H74"/>
     <mergeCell ref="F83:H83"/>
@@ -13109,77 +13171,18 @@
     <mergeCell ref="D52:F54"/>
     <mergeCell ref="J53:J54"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L52:N54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T84:U84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NavAstro/XLS/SondeMAK.xlsx
+++ b/NavAstro/XLS/SondeMAK.xlsx
@@ -114,11 +114,11 @@
 Deux possibilites:
    1. par un interval position basse et haute
         --&gt; la position exacte est trouvee par regle de 3
-                      k = (t - t1) / (t0 - t1) 
-                      M(t) = (1 - k) * M(t0) + k * M(t1) 
+                      M(t) = (1 - k) * M(t0) + k * M(t1)
+                      k = (t - t0) / (t1 - t0) 
    2. par une position et une vitesse angulaire
         --&gt; la position est trouvee par M' = M + v * (t - t0)
-                     k = t - t1
+                     k = t - t0
                      M(t) = M(t0) + v * k</t>
         </r>
       </text>
@@ -145,7 +145,7 @@
           <t xml:space="preserve">
    1. par un interval position basse et haute
         --&gt; la position exacte est trouvee par regle de 3
-                      k = (t - t1) / (t0 - t1) 
+                      k = (t - t0) / (t1 - t0) 
                       M(t) = (1 - k) * M(t0) + k * M(t1) </t>
         </r>
       </text>
@@ -172,7 +172,7 @@
           <t xml:space="preserve">
    2. par une position et une vitesse angulaire
         --&gt; la position est trouvee par M' = M + v * (t - t0)
-                     q = t - t1
+                     q = t - t0
                      M(t) = (M(t0) + v * q) modulo 360</t>
         </r>
       </text>
@@ -320,31 +320,7 @@
     <author>FAGES Pierre</author>
   </authors>
   <commentList>
-    <comment ref="K5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>FAGES Pierre:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-C'est heure montre + erreur + temps chrono utilise pour prendre la meusure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,20 +365,15 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-FAGES Pierre:
-Deux possibilites:
-   1. par un interval position basse et haute
-        --&gt; la position exacte est trouvee par regle de 3
-                      k = (t - t1) / (t0 - t1) 
-                      M(t) = (1 - k) * M(t0) + k * M(t1) 
-   2. par une position et une vitesse angulaire
-        --&gt; la position est trouvee par M' = M + v * (t - t0)
-                     k = t - t1
-                     M(t) = M(t0) + v * k</t>
+On cherche l'heure de passage du soleil a greenwitch (son heure de culmination)
+3 possibilites :
+ 1. par interval horaire (avant et apres le passage du 0°)
+ 2. par une position et une vitesse
+ 3. par carrement l'heure de passage … le plus simple</t>
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,13 +394,16 @@
           </rPr>
           <t xml:space="preserve">
    1. par un interval position basse et haute
-        --&gt; la position exacte est trouvee par regle de 3
-                      k = (t - t1) / (t0 - t1) 
-                      M(t) = (1 - k) * M(t0) + k * M(t1) </t>
+        --&gt; on cherche t pour lequel M(t) = 360 et 
+                      k = (t - t0) / (t1 - t0) 
+                      M(t) = 360 = (1 - k) * M(t0) + k * M(t1) 
+        donc k = (M(t0) - 360) / ( M(t0) - M(t1) )
+                t = k (t1 - t0) + t0 
+           </t>
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +431,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="0" shapeId="0">
+    <comment ref="C53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FAGES Pierre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+   3. Directement dans l'amanach    
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0" shapeId="0">
+    <comment ref="F85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X92" authorId="0" shapeId="0">
+    <comment ref="X88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V101" authorId="0" shapeId="0">
+    <comment ref="V97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J109" authorId="0" shapeId="0">
+    <comment ref="J111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,6 +586,30 @@
     VERS Pg (pied de l'astre sur la terre)
 sinon
    a l'oppose de Pg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FAGES Pierre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+C'est heure montre + erreur + temps chrono utilise pour prendre la meusure</t>
         </r>
       </text>
     </comment>
@@ -1153,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="136">
   <si>
     <t>a. Par le nautical almanach (par interval horaire)</t>
   </si>
@@ -1546,7 +1569,28 @@
     <t>t</t>
   </si>
   <si>
-    <t>Meridienne Soleil</t>
+    <t>c. Par directement l'heure de pasage au meridien</t>
+  </si>
+  <si>
+    <t>Par Valeur</t>
+  </si>
+  <si>
+    <t>Cas C</t>
+  </si>
+  <si>
+    <t>Méridienne Soleil - Latitude / Longitude</t>
+  </si>
+  <si>
+    <t>Declinaison (t)</t>
+  </si>
+  <si>
+    <t>Longitude / Angle Horaire Local (t)</t>
+  </si>
+  <si>
+    <t>AHL(t)</t>
+  </si>
+  <si>
+    <t>Check doit etre null</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2462,6 +2506,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2472,7 +2534,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2667,6 +2729,25 @@
     <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="38" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="39" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="37" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2951,6 +3032,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="47" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="48" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="38" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -3099,13 +3191,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3159,13 +3251,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3208,13 +3300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3268,13 +3360,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3843,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ113"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,23 +3956,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -3890,14 +3982,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -3911,49 +4003,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="S4" s="89" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="S4" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90" t="s">
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="S5" s="92" t="s">
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="S5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -3992,14 +4084,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4014,31 +4106,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="94">
+      <c r="B7" s="103">
         <v>9</v>
       </c>
-      <c r="C7" s="96">
-        <v>56</v>
-      </c>
-      <c r="D7" s="98">
+      <c r="C7" s="105">
+        <v>59</v>
+      </c>
+      <c r="D7" s="107">
         <v>42</v>
       </c>
-      <c r="E7" s="94">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96">
-        <v>0</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="96">
-        <v>0</v>
-      </c>
-      <c r="J7" s="98">
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="105">
+        <v>0</v>
+      </c>
+      <c r="G7" s="107">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0</v>
+      </c>
+      <c r="I7" s="105">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -4047,23 +4139,23 @@
       </c>
       <c r="L7" s="64">
         <f>INT(60 * (AJ7-K7))</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M7" s="64">
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
-        <v>42</v>
-      </c>
-      <c r="S7" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
-        <v>9.9450000000000003</v>
+        <v>9.9949999999999992</v>
       </c>
       <c r="AD7" s="1">
         <f>E7+F7/60+G7/3600</f>
@@ -4075,55 +4167,55 @@
       </c>
       <c r="AJ7" s="1">
         <f>AA7+AD7+AG7</f>
-        <v>9.9450000000000003</v>
+        <v>9.9949999999999992</v>
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="101">
+      <c r="B8" s="104"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="110">
         <f>K7+L7/60+M7/3600</f>
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="S8" s="103" t="s">
+        <v>9.9947222222222205</v>
+      </c>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="S8" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -4150,8 +4242,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -4161,7 +4253,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="121" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -4173,33 +4265,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="116">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="125">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="116">
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="125">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -4214,8 +4306,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -4230,46 +4322,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="130" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="110" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="136" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138" t="s">
+      <c r="K16" s="146"/>
+      <c r="L16" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="M16" s="148"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -4282,11 +4374,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -4299,21 +4391,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="140">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="149">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="143"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -4357,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="M26" s="90" t="s">
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="M26" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -4409,32 +4501,32 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="102">
+      <c r="G29" s="111">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="M29" s="102">
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="M29" s="111">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
       <c r="R29" s="19">
-        <f>(K8-M29)/(G29-M29)</f>
-        <v>5.4999999999999716E-2</v>
+        <f>(K8-G29)/(M29-G29)</f>
+        <v>0.99472222222222051</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="144" t="s">
+      <c r="D31" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -4460,10 +4552,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
+    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -4473,7 +4565,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="146" t="s">
+      <c r="J32" s="155" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -4485,57 +4577,55 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="146" t="s">
-        <v>29</v>
+      <c r="O32" s="155" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="147">
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="156">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="146"/>
-      <c r="L33" s="147">
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="155"/>
+      <c r="L33" s="156">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
-        <v>-5.57</v>
-      </c>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="146"/>
-      <c r="Q33" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U33" s="19">
+        <v>5.57</v>
+      </c>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
+      <c r="Q33" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="87">
         <f>(1-$R$29)*$G33+$R$29*$L33</f>
-        <v>-5.5542500000000006</v>
+        <v>5.5112935185184995</v>
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="159"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -4561,10 +4651,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+    <row r="36" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -4574,7 +4664,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="146" t="s">
+      <c r="J36" s="155" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -4586,16 +4676,14 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="146" t="s">
+      <c r="O36" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="Q36" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19" t="s">
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89" t="s">
         <v>95</v>
       </c>
       <c r="V36" s="19" t="s">
@@ -4607,34 +4695,37 @@
       </c>
       <c r="Y36" s="19"/>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="147">
+    <row r="37" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="156">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="146"/>
-      <c r="L37" s="147">
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="155"/>
+      <c r="L37" s="156">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="146"/>
-      <c r="T37" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U37" s="19">
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="155"/>
+      <c r="Q37" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="87">
         <f>IF(V37&gt;360,V37-360,IF(V37&lt;0,V37+360,V37))</f>
-        <v>0.18842499999999518</v>
-      </c>
-      <c r="V37" s="19">
+        <v>19.924157870370323</v>
+      </c>
+      <c r="V37" s="88">
         <f>(1-$R$29)*$G37+$R$29*$X$37</f>
-        <v>360.188425</v>
+        <v>379.92415787037032</v>
       </c>
       <c r="W37" s="19"/>
       <c r="X37" s="19">
@@ -4652,6 +4743,7 @@
       <c r="AE38"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="O39"/>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -4702,11 +4794,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="90" t="s">
+      <c r="G43" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -4761,12 +4853,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="102">
+      <c r="G46" s="111">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -4776,7 +4868,7 @@
       </c>
       <c r="R46" s="19">
         <f>K8-G46</f>
-        <v>9.9450000000000003</v>
+        <v>9.9947222222222205</v>
       </c>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -4800,11 +4892,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="144" t="s">
+      <c r="D48" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4818,11 +4910,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="144" t="s">
+      <c r="L48" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -4842,10 +4934,10 @@
       <c r="AD48"/>
       <c r="AE48"/>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
+    <row r="49" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -4855,13 +4947,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="155" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -4871,7 +4963,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="146" t="s">
+      <c r="R49" s="155" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -4882,33 +4974,35 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="147">
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="156">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="146"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="155"/>
       <c r="K50"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="147">
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="156">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="146"/>
-      <c r="T50" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U50" s="19">
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="155"/>
+      <c r="T50" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="U50" s="92"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="87">
         <f>G50+O50*$R$46</f>
-        <v>-6.4325833333333335</v>
+        <v>-6.43175462962963</v>
       </c>
       <c r="Z50"/>
       <c r="AA50"/>
@@ -4918,10 +5012,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="148"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="150"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="159"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -4936,11 +5030,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="144" t="s">
+      <c r="D52" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4954,11 +5048,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="144" t="s">
+      <c r="L52" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -4978,10 +5072,10 @@
       <c r="AD52"/>
       <c r="AE52"/>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
+    <row r="53" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -4991,13 +5085,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="146" t="s">
+      <c r="J53" s="155" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -5007,11 +5101,11 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="146" t="s">
+      <c r="R53" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19" t="s">
+      <c r="T53" s="89"/>
+      <c r="U53" s="89" t="s">
         <v>95</v>
       </c>
       <c r="V53" s="19" t="s">
@@ -5024,38 +5118,38 @@
       <c r="AD53"/>
       <c r="AE53"/>
     </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="147">
+    <row r="54" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="156">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="146"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="155"/>
       <c r="K54"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="147">
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="156">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
-      <c r="T54" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U54" s="19">
+      <c r="P54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="155"/>
+      <c r="T54" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="U54" s="87">
         <f>IF(V54&gt;360,V54-360,IF(V54&lt;0,V54+360,V54))</f>
-        <v>326.22655666666668</v>
-      </c>
-      <c r="V54" s="19">
+        <v>326.97248944444442</v>
+      </c>
+      <c r="V54" s="88">
         <f>G54+O54*$R$46</f>
-        <v>326.22655666666668</v>
+        <v>326.97248944444442</v>
       </c>
       <c r="Z54"/>
       <c r="AA54"/>
@@ -5089,19 +5183,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="154" t="s">
+      <c r="D58" s="162"/>
+      <c r="E58" s="162"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -5113,23 +5207,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="155" t="s">
+      <c r="F60" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="156">
-        <f>IF(L58=Constante!E23,U33,U50)</f>
-        <v>-6.4325833333333335</v>
-      </c>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="165">
+        <f>IF(L58=Constante!E23,U33,W50)</f>
+        <v>-6.43175462962963</v>
+      </c>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -5144,9 +5238,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -5157,7 +5251,7 @@
       </c>
       <c r="K62" s="20">
         <f>INT(3600*(ABS(I60)-I62-J62/60))</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L62" s="19" t="str">
         <f>VLOOKUP(IF(I60&lt;0,-1,1),Constante!$F$15:$G$17,2)</f>
@@ -5165,29 +5259,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="159"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="168"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="155" t="s">
+      <c r="F64" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="160">
-        <f>IF(L58="a",AA67,Z52)+H12</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="169">
+        <f>IF(L58=Constante!E23,U37,U54)+H12</f>
+        <v>329.06729244444443</v>
+      </c>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -5202,20 +5296,20 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="J66" s="20">
         <f>INT(60*(ABS(I64)-I66))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K66" s="20">
         <f>INT(3600*(ABS(I64)-I66-J66/60))</f>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L66" s="19" t="str">
         <f>VLOOKUP(IF(I64&lt;0,-1,1),Constante!$F$12:$G$13,2)</f>
@@ -5261,7 +5355,7 @@
       <c r="U70" s="19"/>
       <c r="V70" s="19">
         <f>I60</f>
-        <v>-6.4325833333333335</v>
+        <v>-6.43175462962963</v>
       </c>
       <c r="W70" s="19"/>
       <c r="X70" s="68">
@@ -5271,24 +5365,24 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="68">
         <f>I64</f>
-        <v>2.0948030000000002</v>
+        <v>329.06729244444443</v>
       </c>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="151" t="s">
+      <c r="T71" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="152"/>
+      <c r="U71" s="161"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
-        <v>-0.11226975857557858</v>
+        <v>-0.11225529496742548</v>
       </c>
       <c r="W71" s="69"/>
       <c r="X71" s="69">
@@ -5298,7 +5392,7 @@
       <c r="Y71" s="69"/>
       <c r="Z71" s="69">
         <f>Z70*Constante!$D$19</f>
-        <v>3.6561209530654781E-2</v>
+        <v>5.7433077137786146</v>
       </c>
       <c r="AA71" s="69"/>
       <c r="AC71" s="1" t="s">
@@ -5330,7 +5424,7 @@
       <c r="U72" s="19"/>
       <c r="V72" s="19">
         <f>SIN(V71)*SIN(X71)</f>
-        <v>-8.4393335489627935E-2</v>
+        <v>-8.4382508884657453E-2</v>
       </c>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
@@ -5339,29 +5433,29 @@
       <c r="AA72" s="19"/>
       <c r="AC72" s="1">
         <f>SIN(Constante!D19*'Droite hauteur Soleil'!I60)</f>
-        <v>-0.11203405649912536</v>
+        <v>-0.11201968393681436</v>
       </c>
       <c r="AD72" s="1">
         <f>SIN(Constante!$D$19*'Droite hauteur Soleil'!D12)*SIN(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
-        <v>0.42841152475664518</v>
+        <v>0.35872854774904372</v>
       </c>
       <c r="AE72" s="1">
         <f>COS(Constante!$D$19*'Droite hauteur Soleil'!D12)*COS(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
-        <v>0.5409733204231264</v>
+        <v>0.57832981467184241</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F73" s="20">
         <f>INT(ABS(F74))</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G73" s="20">
         <f>INT(60*(ABS(F74)-F73))</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H73" s="66">
         <f>ABS(F74)-F73-G73/60</f>
-        <v>1.1430958715577311E-2</v>
+        <v>5.496096891406177E-3</v>
       </c>
       <c r="S73" s="19" t="s">
         <v>104</v>
@@ -5372,7 +5466,7 @@
       <c r="U73" s="19"/>
       <c r="V73" s="19">
         <f>COS(V71)*COS(Z71)*COS(X71)</f>
-        <v>0.65311929816189707</v>
+        <v>0.560602747760095</v>
       </c>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
@@ -5381,22 +5475,22 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="161">
+      <c r="F74" s="170">
         <f>V74/Constante!$D$19</f>
-        <v>34.661430958715577</v>
-      </c>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
+        <v>28.43882943022474</v>
+      </c>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="162" t="s">
+      <c r="T74" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="162"/>
+      <c r="U74" s="171"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
-        <v>0.60495609368228154</v>
+        <v>0.49635120897048468</v>
       </c>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
@@ -5443,17 +5537,17 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="91" t="s">
+      <c r="F83" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
       <c r="V83" s="19">
         <f>I60</f>
-        <v>-6.4325833333333335</v>
+        <v>-6.43175462962963</v>
       </c>
       <c r="W83" s="19"/>
       <c r="X83" s="68">
@@ -5463,12 +5557,12 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="68">
         <f>I64</f>
-        <v>2.0948030000000002</v>
+        <v>329.06729244444443</v>
       </c>
       <c r="AA83" s="19"/>
       <c r="AB83" s="68">
         <f>F74</f>
-        <v>34.661430958715577</v>
+        <v>28.43882943022474</v>
       </c>
       <c r="AC83" s="19"/>
     </row>
@@ -5483,13 +5577,13 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="151" t="s">
+      <c r="T84" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="152"/>
+      <c r="U84" s="161"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
-        <v>-0.11226975857557858</v>
+        <v>-0.11225529496742548</v>
       </c>
       <c r="W84" s="69"/>
       <c r="X84" s="69">
@@ -5499,27 +5593,27 @@
       <c r="Y84" s="69"/>
       <c r="Z84" s="69">
         <f>Z83*Constante!$D$19</f>
-        <v>3.6561209530654781E-2</v>
+        <v>5.7433077137786146</v>
       </c>
       <c r="AA84" s="69"/>
       <c r="AB84" s="69">
         <f>AB83*Constante!$D$19</f>
-        <v>0.60495609368228154</v>
+        <v>0.49635120897048468</v>
       </c>
       <c r="AC84" s="69"/>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F85" s="20">
         <f>INT(ABS(F86))</f>
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="G85" s="20">
         <f>INT(60*(ABS(F86)-F85))</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H85" s="66">
         <f>ABS(F86)-F85-G85/60</f>
-        <v>2.31854577487145E-3</v>
+        <v>3.1833510009998123E-3</v>
       </c>
       <c r="J85" s="22" t="s">
         <v>70</v>
@@ -5528,13 +5622,13 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="163" t="s">
+      <c r="T85" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="164"/>
+      <c r="U85" s="173"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
-        <v>-0.11203405649912536</v>
+        <v>-0.11201968393681436</v>
       </c>
       <c r="W85" s="19"/>
       <c r="X85" s="19"/>
@@ -5545,16 +5639,16 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="165">
+      <c r="F86" s="174">
         <f>V88/Constante!$D$19</f>
-        <v>177.46898521244154</v>
-      </c>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
+        <v>144.48651668433433</v>
+      </c>
+      <c r="G86" s="174"/>
+      <c r="H86" s="174"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
-        <v>182.53101478755846</v>
+        <v>144.48651668433433</v>
       </c>
       <c r="L86" s="55" t="s">
         <v>13</v>
@@ -5562,13 +5656,13 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="163" t="s">
+      <c r="T86" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="164"/>
+      <c r="U86" s="173"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
-        <v>0.42841152475664518</v>
+        <v>0.35872854774904372</v>
       </c>
       <c r="W86" s="19"/>
       <c r="X86" s="19"/>
@@ -5582,13 +5676,13 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="163" t="s">
+      <c r="T87" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="164"/>
+      <c r="U87" s="173"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
-        <v>0.5409733204231264</v>
+        <v>0.57832981467184241</v>
       </c>
       <c r="W87" s="19"/>
       <c r="X87" s="19"/>
@@ -5602,13 +5696,13 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="151" t="s">
+      <c r="T88" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="152"/>
+      <c r="U88" s="161"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
-        <v>3.0974181121302333</v>
+        <v>2.5217654408793546</v>
       </c>
       <c r="W88" s="19"/>
       <c r="X88" s="19"/>
@@ -5674,11 +5768,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="91" t="s">
+      <c r="O92" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
+      <c r="P92" s="100"/>
+      <c r="Q92" s="100"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -5691,13 +5785,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="172" t="s">
+      <c r="W92" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="102" t="s">
+      <c r="X92" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="102">
+      <c r="Y92" s="111">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -5747,9 +5841,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
+      <c r="W93" s="111"/>
+      <c r="X93" s="111"/>
+      <c r="Y93" s="111"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -5789,9 +5883,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="102"/>
-      <c r="X94" s="102"/>
-      <c r="Y94" s="102"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -5799,12 +5893,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="161">
+      <c r="O95" s="170">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="161"/>
-      <c r="Q95" s="161"/>
+      <c r="P95" s="170"/>
+      <c r="Q95" s="170"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -5914,11 +6008,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="91" t="s">
+      <c r="F106" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="100"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="67" t="s">
@@ -5934,60 +6028,60 @@
     <row r="108" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F108" s="32">
         <f>INT(ABS(F109))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" s="32">
         <f>INT(60*(ABS(F109)-F108))</f>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H108" s="33">
         <f>ABS(F109)-F108-G108/60</f>
-        <v>2.2420698266844008E-3</v>
+        <v>3.6927919974866774E-3</v>
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="166">
+      <c r="F109" s="175">
         <f>O95-F74</f>
-        <v>-3.8355754031600178</v>
-      </c>
-      <c r="G109" s="167"/>
-      <c r="H109" s="168"/>
-      <c r="J109" s="100">
+        <v>2.38702612533082</v>
+      </c>
+      <c r="G109" s="176"/>
+      <c r="H109" s="177"/>
+      <c r="J109" s="109">
         <f>F109*60</f>
-        <v>-230.13452418960105</v>
-      </c>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100" t="s">
+        <v>143.2215675198492</v>
+      </c>
+      <c r="K109" s="109"/>
+      <c r="L109" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="100"/>
+      <c r="M109" s="109"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="169" t="s">
+      <c r="G112" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="169"/>
-      <c r="I112" s="169"/>
+      <c r="H112" s="178"/>
+      <c r="I112" s="178"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
       <c r="K112" s="83">
         <f>ABS(I60)</f>
-        <v>6.4325833333333335</v>
+        <v>6.43175462962963</v>
       </c>
       <c r="L112" s="83" t="str">
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="169" t="s">
+      <c r="N112" s="180"/>
+      <c r="O112" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="169"/>
-      <c r="Q112" s="169"/>
+      <c r="P112" s="178"/>
+      <c r="Q112" s="178"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -6001,25 +6095,25 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="169"/>
-      <c r="H113" s="169"/>
-      <c r="I113" s="169"/>
+      <c r="G113" s="178"/>
+      <c r="H113" s="178"/>
+      <c r="I113" s="178"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
       <c r="K113" s="83">
         <f>ABS(I64)</f>
-        <v>2.0948030000000002</v>
+        <v>329.06729244444443</v>
       </c>
       <c r="L113" s="83" t="str">
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="169"/>
-      <c r="P113" s="169"/>
-      <c r="Q113" s="169"/>
+      <c r="M113" s="179"/>
+      <c r="N113" s="180"/>
+      <c r="O113" s="178"/>
+      <c r="P113" s="178"/>
+      <c r="Q113" s="178"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -6033,12 +6127,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="102">
     <mergeCell ref="G112:I113"/>
     <mergeCell ref="M112:N113"/>
     <mergeCell ref="O112:Q113"/>
     <mergeCell ref="W92:W94"/>
     <mergeCell ref="X92:X94"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
     <mergeCell ref="Y92:Y94"/>
     <mergeCell ref="O95:Q95"/>
     <mergeCell ref="F106:H106"/>
@@ -6046,11 +6145,6 @@
     <mergeCell ref="J109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
     <mergeCell ref="T84:U84"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="H58:K58"/>
@@ -6064,6 +6158,13 @@
     <mergeCell ref="F74:H74"/>
     <mergeCell ref="T74:U74"/>
     <mergeCell ref="F83:H83"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D48:F50"/>
+    <mergeCell ref="L48:N50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O50:Q50"/>
     <mergeCell ref="G51:J51"/>
     <mergeCell ref="D52:F54"/>
     <mergeCell ref="L52:N54"/>
@@ -6071,13 +6172,6 @@
     <mergeCell ref="R53:R54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D48:F50"/>
-    <mergeCell ref="L48:N50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="D31:F33"/>
     <mergeCell ref="J32:J33"/>
@@ -6091,6 +6185,14 @@
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="L37:N37"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="B13:C15"/>
@@ -6104,13 +6206,18 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="M26:O26"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="S5:X5"/>
     <mergeCell ref="S6:X6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -6123,16 +6230,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="S5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6191,10 +6288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ113"/>
+  <dimension ref="B1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,32 +6302,32 @@
     <col min="20" max="20" width="7.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" style="1" customWidth="1"/>
     <col min="25" max="26" width="11.42578125" style="1"/>
     <col min="27" max="27" width="13.7109375" style="1" customWidth="1"/>
     <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -6239,17 +6336,8 @@
       <c r="Y2" s="56"/>
       <c r="Z2" s="57"/>
     </row>
-    <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-    </row>
-    <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:26" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
         <v>91</v>
       </c>
@@ -6261,466 +6349,357 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="S4" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="S5" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-    </row>
-    <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="41">
+        <v>48.875556000000003</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="41">
+        <v>2.0948030000000002</v>
+      </c>
+      <c r="I7" s="41">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="125">
+        <f>(D7+E7/60+F7/3600) * VLOOKUP(G7,Constante!$D$15:$E$16,2)</f>
+        <v>48.875556000000003</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="125">
+        <f>(H7+I7/60+J7/3600) * VLOOKUP(K7,Constante!$D$12:$E$13,2)</f>
+        <v>2.0948030000000002</v>
+      </c>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="124"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0</v>
+      </c>
+      <c r="F10" s="41">
+        <v>42</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130">
+        <f>(E10+F10/60+G10/3600) * VLOOKUP(D10,Constante!J12:K13,2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+    </row>
+    <row r="12" spans="2:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="140"/>
+      <c r="G12" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="145" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="148"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="41">
+        <v>31</v>
+      </c>
+      <c r="H14" s="41">
+        <v>17</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="149">
+        <f>G14+H14/60+I14/3600</f>
+        <v>31.283333333333335</v>
+      </c>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="152"/>
+      <c r="L15" s="49">
+        <v>0</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="G22" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="M22" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="H23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="I23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="M23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="N23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="O23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="AA6" s="1" t="s">
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G24" s="86">
         <v>9</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="H24" s="86">
+        <v>0</v>
+      </c>
+      <c r="I24" s="86">
+        <v>0</v>
+      </c>
+      <c r="M24" s="86">
+        <v>10</v>
+      </c>
+      <c r="N24" s="86">
+        <v>0</v>
+      </c>
+      <c r="O24" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G25" s="111">
+        <f>G24+H24/60+I24/3600</f>
         <v>9</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="94">
-        <v>9</v>
-      </c>
-      <c r="C7" s="96">
-        <v>56</v>
-      </c>
-      <c r="D7" s="98">
-        <v>42</v>
-      </c>
-      <c r="E7" s="94">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96">
-        <v>0</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="96">
-        <v>0</v>
-      </c>
-      <c r="J7" s="98">
-        <v>0</v>
-      </c>
-      <c r="K7" s="36">
-        <f>INT(AJ7)</f>
-        <v>9</v>
-      </c>
-      <c r="L7" s="74">
-        <f>INT(60 * (AJ7-K7))</f>
-        <v>56</v>
-      </c>
-      <c r="M7" s="74">
-        <f>INT(3600 * (AJ7-K7-L7/60))</f>
-        <v>42</v>
-      </c>
-      <c r="S7" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="AA7" s="1">
-        <f>B7+C7/60+D7/3600</f>
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="AD7" s="1">
-        <f>E7+F7/60+G7/3600</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <f>H7+I7/60+J7/3600</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f>AA7+AD7+AG7</f>
-        <v>9.9450000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="101">
-        <f>K7+L7/60+M7/3600</f>
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="S8" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="45" t="s">
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="M25" s="111">
+        <f>M24+N24/60+O24/3600</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="Q25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="187">
+        <f>(G33-360)/(G33-X33)</f>
+        <v>4.6028093008490131E-2</v>
+      </c>
+      <c r="S25" s="188"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q26" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" s="187">
+        <f>R25*(M25-G25)+G25</f>
+        <v>9.0460280930084895</v>
+      </c>
+      <c r="S26" s="188"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D27" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="41">
-        <v>48.875556000000003</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0</v>
-      </c>
-      <c r="G11" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="41">
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="I11" s="41">
-        <v>0</v>
-      </c>
-      <c r="J11" s="41">
-        <v>0</v>
-      </c>
-      <c r="K11" s="114" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="116">
-        <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
-        <v>48.875556000000003</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="116">
-        <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
-    </row>
-    <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="41">
-        <v>0</v>
-      </c>
-      <c r="F14" s="41">
-        <v>42</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121">
-        <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-    </row>
-    <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="139"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="41">
-        <v>31</v>
-      </c>
-      <c r="H18" s="41">
-        <v>17</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="140">
-        <f>G18+H18/60+I18/3600</f>
-        <v>31.283333333333335</v>
-      </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="49">
-        <v>0</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="G26" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="M26" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G27" s="26" t="s">
-        <v>3</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>4</v>
@@ -6728,63 +6707,96 @@
       <c r="I27" s="26" t="s">
         <v>5</v>
       </c>
+      <c r="J27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="M27" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G28" s="72">
-        <v>9</v>
-      </c>
-      <c r="H28" s="72">
-        <v>0</v>
-      </c>
-      <c r="I28" s="72">
-        <v>0</v>
-      </c>
-      <c r="M28" s="72">
-        <v>10</v>
-      </c>
-      <c r="N28" s="72">
-        <v>0</v>
-      </c>
-      <c r="O28" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="102">
-        <f>G28+H28/60+I28/3600</f>
-        <v>9</v>
-      </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="M29" s="102">
-        <f>M28+N28/60+O28/3600</f>
-        <v>10</v>
-      </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="Q29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="R29" s="19">
-        <f>(K8-M29)/(G29-M29)</f>
-        <v>5.4999999999999716E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
+      <c r="O27" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="34">
+        <v>5</v>
+      </c>
+      <c r="H28" s="34">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I28" s="34">
+        <v>0</v>
+      </c>
+      <c r="J28" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="34">
+        <v>5</v>
+      </c>
+      <c r="M28" s="34">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+      <c r="O28" s="155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="156">
+        <f>(G28+H28/60+I28/3600) * VLOOKUP(J28,Constante!$D$15:$E$16,2)</f>
+        <v>-5.5533333333333337</v>
+      </c>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="155"/>
+      <c r="L29" s="156">
+        <f>(L28+M28/60+N28/3600) * VLOOKUP(O28,Constante!$D$15:$E$16,2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="155"/>
+      <c r="Q29" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="87">
+        <f>(1-R25)*G29+R25*L29</f>
+        <v>-5.0413475121022282</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G30" s="157"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="159"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D31" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -6810,190 +6822,128 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
+    <row r="32" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="34">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="H32" s="34">
-        <v>33.200000000000003</v>
+        <v>2</v>
       </c>
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="146" t="s">
-        <v>29</v>
+      <c r="J32" s="155" t="s">
+        <v>32</v>
       </c>
       <c r="L32" s="34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M32" s="34">
-        <v>34.200000000000003</v>
+        <v>2.1</v>
       </c>
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="146" t="s">
-        <v>29</v>
-      </c>
+      <c r="O32" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="V32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y32" s="19"/>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="147">
-        <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
-        <v>-5.5533333333333337</v>
-      </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="146"/>
-      <c r="L33" s="147">
-        <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
-        <v>-5.57</v>
-      </c>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="146"/>
-      <c r="Q33" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U33" s="19">
-        <f>(1-$R$29)*$G33+$R$29*$L33</f>
-        <v>-5.5542500000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="156">
+        <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$12:$E$13,2)</f>
+        <v>359.03333333333336</v>
+      </c>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="155"/>
+      <c r="L33" s="156">
+        <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$12:$E$13,2)</f>
+        <v>20.035</v>
+      </c>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
+      <c r="Q33" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="191">
+        <f>IF(V33&gt;=360,V33-360,IF(V33&lt;0,V33+360,V33))</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="88">
+        <f>(1-R25)*G33+R25*X33</f>
+        <v>360</v>
+      </c>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19">
+        <f>IF(L33&lt;G33,L33+360,L33)</f>
+        <v>380.03500000000003</v>
+      </c>
+      <c r="Y33" s="19"/>
+    </row>
+    <row r="34" spans="3:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="U34" s="190"/>
+      <c r="V34" s="190"/>
+    </row>
+    <row r="35" spans="3:31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="34">
-        <v>359</v>
-      </c>
-      <c r="H36" s="34">
-        <v>2</v>
-      </c>
-      <c r="I36" s="34">
-        <v>0</v>
-      </c>
-      <c r="J36" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="34">
-        <v>20</v>
-      </c>
-      <c r="M36" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="N36" s="34">
-        <v>0</v>
-      </c>
-      <c r="O36" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="V36" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y36" s="19"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="147">
-        <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
-        <v>359.03333333333336</v>
-      </c>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="146"/>
-      <c r="L37" s="147">
-        <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
-        <v>20.035</v>
-      </c>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="146"/>
-      <c r="T37" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U37" s="19">
-        <f>IF(V37&gt;360,V37-360,IF(V37&lt;0,V37+360,V37))</f>
-        <v>0.18842499999999518</v>
-      </c>
-      <c r="V37" s="19">
-        <f>(1-$R$29)*$G37+$R$29*$X$37</f>
-        <v>360.188425</v>
-      </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19">
-        <f>IF(L37&lt;G37,L37+360,L37)</f>
-        <v>380.03500000000003</v>
-      </c>
-      <c r="Y37" s="19"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C38" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
@@ -7002,6 +6952,19 @@
       <c r="AE38"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D39" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="G39" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -7010,6 +6973,19 @@
       <c r="AE39"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -7018,6 +6994,19 @@
       <c r="AE40"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G41" s="72">
+        <v>0</v>
+      </c>
+      <c r="H41" s="72">
+        <v>0</v>
+      </c>
+      <c r="I41" s="72">
+        <v>0</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -7026,20 +7015,18 @@
       <c r="AE41"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C42" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
+      <c r="G42" s="111">
+        <f>G41+H41/60+I41/3600</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
+      <c r="U42"/>
+      <c r="V42"/>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -7048,19 +7035,12 @@
       <c r="AE42"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D43" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="G43" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
+      <c r="P43"/>
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -7069,8 +7049,13 @@
       <c r="AE43"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D44" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>4</v>
@@ -7078,11 +7063,27 @@
       <c r="I44" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="Z44"/>
+      <c r="J44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44"/>
@@ -7090,45 +7091,65 @@
       <c r="AE44"/>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G45" s="72">
-        <v>0</v>
-      </c>
-      <c r="H45" s="72">
-        <v>0</v>
-      </c>
-      <c r="I45" s="72">
-        <v>0</v>
-      </c>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="Z45"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="38">
+        <v>6</v>
+      </c>
+      <c r="H45" s="34">
+        <v>35.9</v>
+      </c>
+      <c r="I45" s="34">
+        <v>0</v>
+      </c>
+      <c r="J45" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="34">
+        <v>0</v>
+      </c>
+      <c r="P45" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="34">
+        <v>0</v>
+      </c>
+      <c r="R45" s="155" t="s">
+        <v>28</v>
+      </c>
       <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45"/>
       <c r="AD45"/>
       <c r="AE45"/>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="102">
-        <f>G45+H45/60+I45/3600</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="Q46" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R46" s="19">
-        <f>K8-G46</f>
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="Z46"/>
+    <row r="46" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="156">
+        <f>(G45+H45/60+I45/3600) * VLOOKUP(J45,Constante!$D$15:$E$16,2)</f>
+        <v>-6.5983333333333336</v>
+      </c>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="155"/>
+      <c r="K46"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="156">
+        <f>(O45+P45/60+Q45/3600) * VLOOKUP(R45,Constante!$D$15:$E$16,2)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="155"/>
       <c r="AA46"/>
       <c r="AB46"/>
       <c r="AC46"/>
@@ -7136,13 +7157,16 @@
       <c r="AE46"/>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G47" s="157"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="159"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
       <c r="AC47"/>
@@ -7150,11 +7174,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
+      <c r="D48" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7168,11 +7192,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="144" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="L48" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -7185,7 +7209,13 @@
       <c r="R48" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z48"/>
+      <c r="U48" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="V48" s="19">
+        <f>G42+(360 - G50)/O50</f>
+        <v>12.196262720526152</v>
+      </c>
       <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48"/>
@@ -7193,36 +7223,43 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="38">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="H49" s="34">
-        <v>35.9</v>
+        <v>1.9</v>
       </c>
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="146" t="s">
-        <v>29</v>
+      <c r="J49" s="155" t="s">
+        <v>32</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="34">
-        <v>0</v>
+        <v>15.002000000000001</v>
       </c>
       <c r="P49" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="146" t="s">
-        <v>28</v>
+      <c r="R49" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="W49" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="Z49"/>
       <c r="AA49"/>
@@ -7231,142 +7268,71 @@
       <c r="AD49"/>
       <c r="AE49"/>
     </row>
-    <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="147">
-        <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
-        <v>-6.5983333333333336</v>
-      </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="146"/>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="156">
+        <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$12:$E$13,2)</f>
+        <v>177.03166666666667</v>
+      </c>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="155"/>
       <c r="K50"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="147">
-        <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="146"/>
-      <c r="T50" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="U50" s="19">
-        <f>G46+(360 - G54)/O54</f>
-        <v>12.196262720526152</v>
-      </c>
-      <c r="Z50"/>
-      <c r="AA50"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="156">
+        <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$12:$E$13,2)</f>
+        <v>15.002000000000001</v>
+      </c>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="155"/>
+      <c r="U50" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V50" s="189">
+        <f>IF(W50&gt;=360,W50-360,IF(W50&lt;0,W50+360,W50))</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <f>G50+O50*(V48-G42)</f>
+        <v>360</v>
+      </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="148"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="150"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
+      <c r="U51" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="V51" s="190"/>
+      <c r="W51" s="190"/>
       <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
-      <c r="O52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z52"/>
-      <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="38">
-        <v>177</v>
-      </c>
-      <c r="H53" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="I53" s="34">
-        <v>0</v>
-      </c>
-      <c r="J53" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
-      <c r="O53" s="34">
-        <v>15.002000000000001</v>
-      </c>
-      <c r="P53" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="34">
-        <v>0</v>
-      </c>
-      <c r="R53" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="V53" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="C53" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
@@ -7375,38 +7341,15 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="147">
-        <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
-        <v>177.03166666666667</v>
-      </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="146"/>
-      <c r="K54"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="147">
-        <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
-        <v>15.002000000000001</v>
-      </c>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
-      <c r="T54" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U54" s="19">
-        <f>IF(V54&gt;360,V54-360,IF(V54&lt;0,V54+360,V54))</f>
-        <v>326.22655666666668</v>
-      </c>
-      <c r="V54" s="19">
-        <f>G54+O54*$R$46</f>
-        <v>326.22655666666668</v>
-      </c>
+      <c r="D54" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="G54" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
@@ -7415,6 +7358,15 @@
       <c r="AE54"/>
     </row>
     <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G55" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
@@ -7423,6 +7375,15 @@
       <c r="AE55"/>
     </row>
     <row r="56" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G56" s="85">
+        <v>11</v>
+      </c>
+      <c r="H56" s="85">
+        <v>54</v>
+      </c>
+      <c r="I56" s="85">
+        <v>0</v>
+      </c>
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
@@ -7431,6 +7392,12 @@
       <c r="AE56"/>
     </row>
     <row r="57" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G57" s="111">
+        <f>G56+H56/60+I56/3600</f>
+        <v>11.9</v>
+      </c>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
       <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57"/>
@@ -7439,509 +7406,535 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="153" t="s">
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C60" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="154" t="s">
-        <v>57</v>
-      </c>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="71" t="str">
-        <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
-        <v>Cas B</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D59" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="155" t="s">
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="163" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="163"/>
+      <c r="J60" s="163"/>
+      <c r="K60" s="163"/>
+      <c r="L60" s="71" t="str">
+        <f>VLOOKUP(H60,Constante!D23:E25,2)</f>
+        <v>Cas C</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="156">
-        <f>IF(L58=Constante!E23,U33,U50)</f>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="165">
+        <f>IF(L60=Constante!E23,S33,V48)</f>
         <v>12.196262720526152</v>
       </c>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="75" t="s">
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="75" t="s">
+      <c r="J63" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="75" t="s">
+      <c r="K63" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L63" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="20">
-        <f>INT(ABS(I60))</f>
+    <row r="64" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="20">
+        <f>INT(ABS(I62))</f>
         <v>12</v>
       </c>
-      <c r="J62" s="20">
-        <f>INT(60*(ABS(I60)-I62))</f>
+      <c r="J64" s="20">
+        <f>INT(60*(ABS(I62)-I64))</f>
         <v>11</v>
       </c>
-      <c r="K62" s="20">
-        <f>INT(3600*(ABS(I60)-I62-J62/60))</f>
+      <c r="K64" s="20">
+        <f>INT(3600*(ABS(I62)-I64-J64/60))</f>
         <v>46</v>
       </c>
-      <c r="L62" s="19" t="str">
-        <f>VLOOKUP(IF(I60&lt;0,-1,1),Constante!$F$15:$G$17,2)</f>
+      <c r="L64" s="19" t="str">
+        <f>VLOOKUP(IF(I62&lt;0,-1,1),Constante!$F$15:$G$17,2)</f>
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="159"/>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="155" t="s">
+    <row r="65" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="166"/>
+      <c r="J65" s="167"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="168"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F66" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="160">
-        <f>IF(L58="a",AA67,Z52)+H12</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="75" t="s">
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="169" t="e">
+        <f>IF(L60="a",AA69,#REF!)+H8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19">
+        <f>I62</f>
+        <v>12.196262720526152</v>
+      </c>
+      <c r="W66" s="19"/>
+      <c r="X66" s="68">
+        <f>D8</f>
+        <v>48.875556000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="75" t="s">
+      <c r="J67" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="75" t="s">
+      <c r="K67" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L67" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="20">
-        <f>INT(ABS(I64))</f>
-        <v>2</v>
-      </c>
-      <c r="J66" s="20">
-        <f>INT(60*(ABS(I64)-I66))</f>
+      <c r="S67" s="19"/>
+      <c r="T67" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="U67" s="161"/>
+      <c r="V67" s="69">
+        <f>V66*Constante!$D$19</f>
+        <v>0.21286494091142236</v>
+      </c>
+      <c r="W67" s="69"/>
+      <c r="X67" s="69">
+        <f>X66*Constante!$D$19</f>
+        <v>0.85303937594286972</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="20" t="e">
+        <f>INT(ABS(I66))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J68" s="20" t="e">
+        <f>INT(60*(ABS(I66)-I68))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K68" s="20" t="e">
+        <f>INT(3600*(ABS(I66)-I68-J68/60))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L68" s="19" t="e">
+        <f>VLOOKUP(IF(I66&lt;0,-1,1),Constante!$F$12:$G$13,2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S68" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T68" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19">
+        <f>SIN(V67)*SIN(X67)</f>
+        <v>0.15913932325834326</v>
+      </c>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S69" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T69" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19" t="e">
+        <f>COS(V67)*COS(Z73)*COS(X67)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S70" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T70" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="U70" s="171"/>
+      <c r="V70" s="69" t="e">
+        <f>ASIN(V68+V69)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+    </row>
+    <row r="71" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA71" s="19"/>
+    </row>
+    <row r="72" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="30"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="68" t="e">
+        <f>I66</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA72" s="19"/>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F73" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69" t="e">
+        <f>Z72*Constante!$D$19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA73" s="69"/>
+      <c r="AC73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F74" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="20">
-        <f>INT(3600*(ABS(I64)-I66-J66/60))</f>
-        <v>41</v>
-      </c>
-      <c r="L66" s="19" t="str">
-        <f>VLOOKUP(IF(I64&lt;0,-1,1),Constante!$F$12:$G$13,2)</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA69" s="19"/>
-    </row>
-    <row r="70" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19">
-        <f>I60</f>
-        <v>12.196262720526152</v>
-      </c>
-      <c r="W70" s="19"/>
-      <c r="X70" s="68">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="68">
-        <f>I64</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="AA70" s="19"/>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="U71" s="152"/>
-      <c r="V71" s="69">
-        <f>V70*Constante!$D$19</f>
-        <v>0.21286494091142236</v>
-      </c>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69">
-        <f>X70*Constante!$D$19</f>
-        <v>0.85303937594286972</v>
-      </c>
-      <c r="Y71" s="69"/>
-      <c r="Z71" s="69">
-        <f>Z70*Constante!$D$19</f>
-        <v>3.6561209530654781E-2</v>
-      </c>
-      <c r="AA71" s="69"/>
-      <c r="AC71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE71" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F72" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="T72" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19">
-        <f>SIN(V71)*SIN(X71)</f>
-        <v>0.15913932325834326</v>
-      </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AC72" s="1">
-        <f>SIN(Constante!D19*'Droite hauteur Soleil'!I60)</f>
-        <v>-0.11203405649912536</v>
-      </c>
-      <c r="AD72" s="1">
-        <f>SIN(Constante!$D$19*'Droite hauteur Soleil'!D12)*SIN(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
-        <v>0.42841152475664518</v>
-      </c>
-      <c r="AE72" s="1">
-        <f>COS(Constante!$D$19*'Droite hauteur Soleil'!D12)*COS(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
-        <v>0.5409733204231264</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F73" s="20">
-        <f>INT(ABS(F74))</f>
-        <v>53</v>
-      </c>
-      <c r="G73" s="20">
-        <f>INT(60*(ABS(F74)-F73))</f>
-        <v>16</v>
-      </c>
-      <c r="H73" s="73">
-        <f>ABS(F74)-F73-G73/60</f>
-        <v>1.285223160259269E-2</v>
-      </c>
-      <c r="S73" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T73" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19">
-        <f>COS(V71)*COS(Z71)*COS(X71)</f>
-        <v>0.64242264109019009</v>
-      </c>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="161">
-        <f>V74/Constante!$D$19</f>
-        <v>53.279518898269259</v>
-      </c>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
-      <c r="S74" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="T74" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="U74" s="162"/>
-      <c r="V74" s="69">
-        <f>ASIN(V72+V73)</f>
-        <v>0.92990302865334029</v>
-      </c>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="19"/>
-    </row>
-    <row r="81" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
+      <c r="AC74" s="1">
+        <f>SIN(Constante!D19*'Droite hauteur Soleil'!I60)</f>
+        <v>-0.11201968393681436</v>
+      </c>
+      <c r="AD74" s="1">
+        <f>SIN(Constante!$D$19*'Droite hauteur Soleil'!D12)*SIN(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
+        <v>0.35872854774904372</v>
+      </c>
+      <c r="AE74" s="1">
+        <f>COS(Constante!$D$19*'Droite hauteur Soleil'!D12)*COS(Constante!$D$19*'Droite hauteur Soleil'!F74)</f>
+        <v>0.57832981467184241</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F75" s="20" t="e">
+        <f>INT(ABS(F76))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G75" s="20" t="e">
+        <f>INT(60*(ABS(F76)-F75))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H75" s="73" t="e">
+        <f>ABS(F76)-F75-G75/60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F76" s="170" t="e">
+        <f>V70/Constante!$D$19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+    </row>
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19">
+        <f>I62</f>
+        <v>12.196262720526152</v>
+      </c>
+      <c r="W79" s="19"/>
+      <c r="X79" s="68">
+        <f>D8</f>
+        <v>48.875556000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S80" s="19"/>
+      <c r="T80" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="U80" s="161"/>
+      <c r="V80" s="69">
+        <f>V79*Constante!$D$19</f>
+        <v>0.21286494091142236</v>
+      </c>
+      <c r="W80" s="69"/>
+      <c r="X80" s="69">
+        <f>X79*Constante!$D$19</f>
+        <v>0.85303937594286972</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="S81" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T81" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="U81" s="173"/>
+      <c r="V81" s="19">
+        <f>SIN(V80)</f>
+        <v>0.21126104128624015</v>
+      </c>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="S82" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T82" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="U82" s="173"/>
+      <c r="V82" s="19" t="e">
+        <f>SIN(X80)*SIN(AB86)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+    </row>
+    <row r="83" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S83" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T83" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="U83" s="173"/>
+      <c r="V83" s="19" t="e">
+        <f>COS(X80)*COS(AB86)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+    </row>
+    <row r="84" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="30"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y82" s="19"/>
-      <c r="Z82" s="19" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="30"/>
+      <c r="S84" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T84" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="U84" s="161"/>
+      <c r="V84" s="69" t="e">
+        <f>ACOS(((V81-V82)/V83))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AA82" s="19"/>
-      <c r="AB82" s="19" t="s">
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AC82" s="19"/>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="91" t="s">
+      <c r="AC84" s="19"/>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F85" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19">
-        <f>I60</f>
-        <v>12.196262720526152</v>
-      </c>
-      <c r="W83" s="19"/>
-      <c r="X83" s="68">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
-      <c r="Y83" s="19"/>
-      <c r="Z83" s="68">
-        <f>I64</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="AA83" s="19"/>
-      <c r="AB83" s="68">
-        <f>F74</f>
-        <v>53.279518898269259</v>
-      </c>
-      <c r="AC83" s="19"/>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F84" s="75" t="s">
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="68" t="e">
+        <f>I66</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="68" t="e">
+        <f>F76</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC85" s="19"/>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F86" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="75" t="s">
+      <c r="G86" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="75" t="s">
+      <c r="H86" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="S84" s="19"/>
-      <c r="T84" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="U84" s="152"/>
-      <c r="V84" s="69">
-        <f>V83*Constante!$D$19</f>
-        <v>0.21286494091142236</v>
-      </c>
-      <c r="W84" s="69"/>
-      <c r="X84" s="69">
-        <f>X83*Constante!$D$19</f>
-        <v>0.85303937594286972</v>
-      </c>
-      <c r="Y84" s="69"/>
-      <c r="Z84" s="69">
-        <f>Z83*Constante!$D$19</f>
-        <v>3.6561209530654781E-2</v>
-      </c>
-      <c r="AA84" s="69"/>
-      <c r="AB84" s="69">
-        <f>AB83*Constante!$D$19</f>
-        <v>0.92990302865334029</v>
-      </c>
-      <c r="AC84" s="69"/>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F85" s="20">
-        <f>INT(ABS(F86))</f>
-        <v>176</v>
-      </c>
-      <c r="G85" s="20">
-        <f>INT(60*(ABS(F86)-F85))</f>
-        <v>34</v>
-      </c>
-      <c r="H85" s="73">
-        <f>ABS(F86)-F85-G85/60</f>
-        <v>7.5990300985286918E-3</v>
-      </c>
-      <c r="J85" s="22" t="s">
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86" s="69"/>
+      <c r="Z86" s="69" t="e">
+        <f>Z85*Constante!$D$19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA86" s="69"/>
+      <c r="AB86" s="69" t="e">
+        <f>AB85*Constante!$D$19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC86" s="69"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F87" s="20" t="e">
+        <f>INT(ABS(F88))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G87" s="20" t="e">
+        <f>INT(60*(ABS(F88)-F87))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H87" s="73" t="e">
+        <f>ABS(F88)-F87-G87/60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J87" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K85" s="22"/>
-      <c r="S85" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="T85" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="U85" s="164"/>
-      <c r="V85" s="19">
-        <f>SIN(V84)</f>
-        <v>0.21126104128624015</v>
-      </c>
-      <c r="W85" s="19"/>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="19"/>
-      <c r="Z85" s="19"/>
-      <c r="AA85" s="19"/>
-      <c r="AB85" s="19"/>
-      <c r="AC85" s="19"/>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="165">
-        <f>V88/Constante!$D$19</f>
-        <v>176.5742656967652</v>
-      </c>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54">
-        <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
-        <v>183.4257343032348</v>
-      </c>
-      <c r="L86" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="S86" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T86" s="163" t="s">
-        <v>106</v>
-      </c>
-      <c r="U86" s="164"/>
-      <c r="V86" s="19">
-        <f>SIN(X84)*SIN(AB84)</f>
-        <v>0.60380289607311577</v>
-      </c>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
-      <c r="AC86" s="19"/>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="S87" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="T87" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="U87" s="164"/>
-      <c r="V87" s="19">
-        <f>COS(X84)*COS(AB84)</f>
-        <v>0.39324454744956178</v>
-      </c>
-      <c r="W87" s="19"/>
-      <c r="X87" s="19"/>
+      <c r="K87" s="22"/>
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="19"/>
@@ -7949,19 +7942,38 @@
       <c r="AC87" s="19"/>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="S88" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="T88" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="U88" s="152"/>
-      <c r="V88" s="69">
-        <f>ACOS(((V85-V86)/V87))</f>
-        <v>3.0818023106998318</v>
-      </c>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
+      <c r="F88" s="174" t="e">
+        <f>V84/Constante!$D$19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G88" s="174"/>
+      <c r="H88" s="174"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="54" t="e">
+        <f>IF(I66&lt;180,ABS(F88-360),F88)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L88" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="U88" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="V88" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="W88" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="X88" s="111" t="s">
+        <v>120</v>
+      </c>
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="19"/>
@@ -7969,520 +7981,644 @@
       <c r="AC88" s="19"/>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
-    </row>
-    <row r="90" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
-    </row>
-    <row r="91" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="30"/>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O92" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
-      <c r="S92" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="T92" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="U92" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="V92" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="W92" s="172" t="s">
-        <v>121</v>
-      </c>
-      <c r="X92" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y92" s="102">
-        <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D93" s="23">
-        <f>G19</f>
-        <v>31.283333333333335</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="25">
-        <f>D15</f>
-        <v>0.7</v>
-      </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" s="19">
-        <f>V101</f>
-        <v>0.24252222222222225</v>
-      </c>
-      <c r="O93" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="P93" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q93" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="S93" s="71" t="b">
-        <f>ISNUMBER(SEARCH(E16,Constante!D4))</f>
-        <v>0</v>
-      </c>
-      <c r="T93" s="71" t="b">
-        <f>ISNUMBER(SEARCH(E16,Constante!D3))</f>
+      <c r="S89" s="71" t="b">
+        <f>ISNUMBER(SEARCH(E12,Constante!D4))</f>
+        <v>0</v>
+      </c>
+      <c r="T89" s="71" t="b">
+        <f>ISNUMBER(SEARCH(E12,Constante!D3))</f>
         <v>1</v>
       </c>
-      <c r="U93" s="71" t="b">
-        <f>AND(NOT(S93),NOT(T93))</f>
-        <v>0</v>
-      </c>
-      <c r="V93" s="71" t="b">
-        <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
-        <v>0</v>
-      </c>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I94" s="19">
-        <f>Y92</f>
-        <v>0</v>
-      </c>
-      <c r="O94" s="20">
-        <f>INT(ABS(O95))</f>
-        <v>30</v>
-      </c>
-      <c r="P94" s="20">
-        <f>INT(60*(ABS(O95)-O94))</f>
-        <v>49</v>
-      </c>
-      <c r="Q94" s="73">
-        <f>ABS(O95)-O94-P94/60</f>
-        <v>9.1888888888929099E-3</v>
-      </c>
-      <c r="S94" s="19">
+      <c r="U89" s="71" t="b">
+        <f>AND(NOT(S89),NOT(T89))</f>
+        <v>0</v>
+      </c>
+      <c r="V89" s="71" t="b">
+        <f>ISNUMBER(SEARCH(L12,Constante!G4))</f>
+        <v>0</v>
+      </c>
+      <c r="W89" s="111"/>
+      <c r="X89" s="111"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="S90" s="19">
         <v>999</v>
       </c>
-      <c r="T94" s="19">
-        <v>0</v>
-      </c>
-      <c r="U94" s="19">
+      <c r="T90" s="19">
+        <v>0</v>
+      </c>
+      <c r="U90" s="19">
         <f>Constante!Q19</f>
         <v>-0.26666666666</v>
       </c>
-      <c r="V94" s="19">
+      <c r="V90" s="19">
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="102"/>
-      <c r="X94" s="102"/>
-      <c r="Y94" s="102"/>
+      <c r="W90" s="111"/>
+      <c r="X90" s="111"/>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="19"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="19"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+    </row>
+    <row r="92" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S92" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="V92" s="19">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+    </row>
+    <row r="93" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="30"/>
+      <c r="U93" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="V93" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="W93" s="79"/>
+      <c r="X93" s="79"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O94" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" s="100"/>
+      <c r="Q94" s="100"/>
+      <c r="U94" s="82"/>
+      <c r="V94" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="W94" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="X94" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y94" s="111">
+        <f>IF(U89,U90,IF(T89,IF(V89,V90,T90),IF(S89,S90,888)))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="I95" s="1" t="s">
+      <c r="D95" s="23">
+        <f>G15</f>
+        <v>31.283333333333335</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="25">
+        <f>D11</f>
+        <v>0.7</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="19">
+        <f>V97</f>
+        <v>0.24252222222222225</v>
+      </c>
+      <c r="O95" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="P95" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q95" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="U95" s="82"/>
+      <c r="V95" s="80">
+        <f>MATCH(D95,Constante!$M$6:$M$17,1)</f>
+        <v>10</v>
+      </c>
+      <c r="W95" s="79">
+        <f>INDEX(Constante!$M$6:$M$17,V95)</f>
+        <v>30</v>
+      </c>
+      <c r="X95" s="79">
+        <f>INDEX(Constante!$N$6:$S$17,V95,1+V92)</f>
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="Y95" s="111"/>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I96" s="19">
+        <f>Y94</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="20">
+        <f>INT(ABS(O97))</f>
+        <v>30</v>
+      </c>
+      <c r="P96" s="20">
+        <f>INT(60*(ABS(O97)-O96))</f>
+        <v>49</v>
+      </c>
+      <c r="Q96" s="73">
+        <f>ABS(O97)-O96-P96/60</f>
+        <v>9.1888888888929099E-3</v>
+      </c>
+      <c r="U96" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="V96" s="23">
+        <f>(D95-W95)/(Z101-W95)</f>
+        <v>6.4166666666666747E-2</v>
+      </c>
+      <c r="Y96" s="111"/>
+    </row>
+    <row r="97" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="I97" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="161">
-        <f>D93-F93+I93+I94</f>
+      <c r="O97" s="170">
+        <f>D95-F95+I95+I96</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="161"/>
-      <c r="Q95" s="161"/>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="S96" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T96" s="19"/>
-      <c r="U96" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="V96" s="19">
-        <f>L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U97" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="V97" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="W97" s="79"/>
-      <c r="X97" s="79"/>
-      <c r="Y97" s="78" t="s">
+      <c r="P97" s="170"/>
+      <c r="Q97" s="170"/>
+      <c r="U97" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V97" s="19">
+        <f>(1-V96)*X95+V96*AA101</f>
+        <v>0.24252222222222225</v>
+      </c>
+    </row>
+    <row r="98" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="X99"/>
+      <c r="Y99" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z97" s="78"/>
-      <c r="AA97" s="78"/>
-    </row>
-    <row r="98" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U98" s="82"/>
-      <c r="V98" s="79" t="s">
+      <c r="Z99" s="78"/>
+      <c r="AA99" s="78"/>
+    </row>
+    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="X100"/>
+      <c r="Y100" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="W98" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="X98" s="79" t="s">
+      <c r="Z100" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA100" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="Y98" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z98" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA98" s="78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U99" s="82"/>
-      <c r="V99" s="80">
-        <f>MATCH(D93,Constante!$M$6:$M$17,1)</f>
-        <v>10</v>
-      </c>
-      <c r="W99" s="79">
-        <f>INDEX(Constante!$M$6:$M$17,V99)</f>
-        <v>30</v>
-      </c>
-      <c r="X99" s="79">
-        <f>INDEX(Constante!$N$6:$S$17,V99,1+V96)</f>
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="Y99" s="81">
-        <f>V99+1</f>
+    </row>
+    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Y101" s="81">
+        <f>V95+1</f>
         <v>11</v>
       </c>
-      <c r="Z99" s="78">
-        <f>INDEX(Constante!$M$6:$M$17,Y99)</f>
+      <c r="Z101" s="78">
+        <f>INDEX(Constante!$M$6:$M$17,Y101)</f>
         <v>50</v>
       </c>
-      <c r="AA99" s="78">
-        <f>INDEX(Constante!$N$6:$S$17,Y99,1+V96)</f>
+      <c r="AA101" s="78">
+        <f>INDEX(Constante!$N$6:$S$17,Y101,1+V92)</f>
         <v>0.255</v>
       </c>
     </row>
-    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U100" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V100" s="23">
-        <f>(D93-W99)/(Z99-W99)</f>
-        <v>6.4166666666666747E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="U101" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="V101" s="19">
-        <f>(1-V100)*X99+V100*AA99</f>
-        <v>0.24252222222222225</v>
-      </c>
-    </row>
-    <row r="103" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="X103"/>
-    </row>
-    <row r="104" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="X104"/>
-    </row>
-    <row r="105" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D105" s="1" t="s">
+    <row r="107" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="91" t="s">
+    <row r="108" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F108" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-    </row>
-    <row r="107" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F107" s="75" t="s">
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="S108" s="84">
+        <f>D8</f>
+        <v>48.875556000000003</v>
+      </c>
+      <c r="T108" s="83" t="str">
+        <f>G7</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="109" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F109" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="75" t="s">
+      <c r="G109" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H107" s="75" t="s">
+      <c r="H109" s="75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F108" s="32">
-        <f>INT(ABS(F109))</f>
-        <v>22</v>
-      </c>
-      <c r="G108" s="32">
-        <f>INT(60*(ABS(F109)-F108))</f>
-        <v>27</v>
-      </c>
-      <c r="H108" s="33">
-        <f>ABS(F109)-F108-G108/60</f>
-        <v>3.6633427136997798E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="166">
-        <f>O95-F74</f>
-        <v>-22.4536633427137</v>
-      </c>
-      <c r="G109" s="167"/>
-      <c r="H109" s="168"/>
-      <c r="J109" s="100">
-        <f>F109*60</f>
-        <v>-1347.219800562822</v>
-      </c>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100" t="s">
+      <c r="S109" s="84">
+        <f>H8</f>
+        <v>2.0948030000000002</v>
+      </c>
+      <c r="T109" s="83" t="str">
+        <f>K7</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="110" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F110" s="32" t="e">
+        <f>INT(ABS(F111))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G110" s="32" t="e">
+        <f>INT(60*(ABS(F111)-F110))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H110" s="33" t="e">
+        <f>ABS(F111)-F110-G110/60</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F111" s="175" t="e">
+        <f>O97-F76</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G111" s="176"/>
+      <c r="H111" s="177"/>
+      <c r="J111" s="109" t="e">
+        <f>F111*60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K111" s="109"/>
+      <c r="L111" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="100"/>
-    </row>
-    <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="169" t="s">
+      <c r="M111" s="109"/>
+    </row>
+    <row r="114" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G114" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="169"/>
-      <c r="I112" s="169"/>
-      <c r="J112" s="83" t="s">
+      <c r="H114" s="178"/>
+      <c r="I114" s="178"/>
+      <c r="J114" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="83">
-        <f>ABS(I60)</f>
+      <c r="K114" s="83">
+        <f>ABS(I62)</f>
         <v>12.196262720526152</v>
       </c>
-      <c r="L112" s="83" t="str">
-        <f>L62</f>
+      <c r="L114" s="83" t="str">
+        <f>L64</f>
         <v>N</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M114" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="169" t="s">
+      <c r="N114" s="180"/>
+      <c r="O114" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="169"/>
-      <c r="Q112" s="169"/>
-      <c r="R112" s="83" t="s">
+      <c r="P114" s="178"/>
+      <c r="Q114" s="178"/>
+      <c r="R114" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="S112" s="84">
-        <f>D12</f>
-        <v>48.875556000000003</v>
-      </c>
-      <c r="T112" s="83" t="str">
-        <f>G11</f>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="169"/>
-      <c r="H113" s="169"/>
-      <c r="I113" s="169"/>
-      <c r="J113" s="83" t="s">
+    </row>
+    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G115" s="178"/>
+      <c r="H115" s="178"/>
+      <c r="I115" s="178"/>
+      <c r="J115" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="83">
-        <f>ABS(I64)</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="L113" s="83" t="str">
-        <f>L66</f>
-        <v>E</v>
-      </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="169"/>
-      <c r="P113" s="169"/>
-      <c r="Q113" s="169"/>
-      <c r="R113" s="83" t="s">
+      <c r="K115" s="83" t="e">
+        <f>ABS(I66)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L115" s="83" t="e">
+        <f>L68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M115" s="179"/>
+      <c r="N115" s="180"/>
+      <c r="O115" s="178"/>
+      <c r="P115" s="178"/>
+      <c r="Q115" s="178"/>
+      <c r="R115" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="84">
-        <f>H12</f>
-        <v>2.0948030000000002</v>
-      </c>
-      <c r="T113" s="83" t="str">
-        <f>K11</f>
-        <v>E</v>
-      </c>
+    </row>
+    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B118" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="99"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="99"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
+      <c r="K118" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="L118" s="100"/>
+      <c r="M118" s="100"/>
+    </row>
+    <row r="119" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K119" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M119" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B120" s="103">
+        <v>9</v>
+      </c>
+      <c r="C120" s="105">
+        <v>56</v>
+      </c>
+      <c r="D120" s="107">
+        <v>42</v>
+      </c>
+      <c r="E120" s="103">
+        <v>0</v>
+      </c>
+      <c r="F120" s="105">
+        <v>0</v>
+      </c>
+      <c r="G120" s="107">
+        <v>0</v>
+      </c>
+      <c r="H120" s="103">
+        <v>0</v>
+      </c>
+      <c r="I120" s="105">
+        <v>0</v>
+      </c>
+      <c r="J120" s="107">
+        <v>0</v>
+      </c>
+      <c r="K120" s="36">
+        <f>INT(AJ120)</f>
+        <v>9</v>
+      </c>
+      <c r="L120" s="74">
+        <f>INT(60 * (AJ120-K120))</f>
+        <v>56</v>
+      </c>
+      <c r="M120" s="74">
+        <f>INT(3600 * (AJ120-K120-L120/60))</f>
+        <v>42</v>
+      </c>
+      <c r="AA120" s="1">
+        <f>B120+C120/60+D120/3600</f>
+        <v>9.9450000000000003</v>
+      </c>
+      <c r="AD120" s="1">
+        <f>E120+F120/60+G120/3600</f>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="1">
+        <f>H120+I120/60+J120/3600</f>
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="1">
+        <f>AA120+AD120+AG120</f>
+        <v>9.9450000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B121" s="104"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="106"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="104"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="108"/>
+      <c r="K121" s="110">
+        <f>K120+L120/60+M120/3600</f>
+        <v>9.9450000000000003</v>
+      </c>
+      <c r="L121" s="111"/>
+      <c r="M121" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="G112:I113"/>
-    <mergeCell ref="M112:N113"/>
-    <mergeCell ref="O112:Q113"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F64:H66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="F60:H62"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="G46:I46"/>
+  <mergeCells count="101">
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W88:W90"/>
+    <mergeCell ref="X88:X90"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="G114:I115"/>
+    <mergeCell ref="M114:N115"/>
+    <mergeCell ref="O114:Q115"/>
+    <mergeCell ref="Y94:Y96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="F62:H64"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F66:H68"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="D44:F46"/>
+    <mergeCell ref="L44:N46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="G47:J47"/>
     <mergeCell ref="D48:F50"/>
     <mergeCell ref="L48:N50"/>
     <mergeCell ref="J49:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="L52:N54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="G54:I54"/>
     <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="O32:O33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="L33:N33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:D15"/>
+    <mergeCell ref="E12:F15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="O28:O29"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:D19"/>
-    <mergeCell ref="E16:F19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D27:F29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="J120:J121"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8495,43 +8631,43 @@
           <x14:formula1>
             <xm:f>Constante!$D$3:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E16</xm:sqref>
+          <xm:sqref>E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$D$15:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G11:G12 J32:J33 O32:O33 J49:J50 R49:R50</xm:sqref>
+          <xm:sqref>G7:G8 J45:J46 R45:R46 J28:J29 O28:O29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$D$12:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>J53:J54 J36:J37 O36:O37 K11:K12 R53:R54</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Constante!$D$23:$D$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>J49:J50 K7:K8 R49:R50 J32:J33 O32:O33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$K$3:$K$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L19</xm:sqref>
+          <xm:sqref>L15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$G$3:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L16:M16</xm:sqref>
+          <xm:sqref>L12:M12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Constante!$J$12:$J$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Constante!$D$23:$D$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>H60:K60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8564,23 +8700,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -8590,14 +8726,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -8611,49 +8747,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="S4" s="89" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="S4" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90" t="s">
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="S5" s="92" t="s">
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="S5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -8692,14 +8828,14 @@
       <c r="M6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -8714,31 +8850,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="94">
+      <c r="B7" s="103">
         <v>9</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="105">
         <v>56</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="107">
         <v>42</v>
       </c>
-      <c r="E7" s="94">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96">
-        <v>0</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="96">
-        <v>0</v>
-      </c>
-      <c r="J7" s="98">
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="105">
+        <v>0</v>
+      </c>
+      <c r="G7" s="107">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0</v>
+      </c>
+      <c r="I7" s="105">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -8753,14 +8889,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="100" t="s">
+      <c r="S7" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -8779,51 +8915,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="101">
+      <c r="B8" s="104"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="110">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="S8" s="103" t="s">
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="S8" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -8850,8 +8986,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -8861,7 +8997,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="121" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -8873,33 +9009,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="116">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="125">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="116">
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="125">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -8914,8 +9050,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -8930,46 +9066,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="130" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="110" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="136" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138" t="s">
+      <c r="K16" s="146"/>
+      <c r="L16" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="M16" s="148"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -8982,11 +9118,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -8999,21 +9135,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="140">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="149">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="143"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -9057,16 +9193,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="M26" s="90" t="s">
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="M26" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -9109,18 +9245,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="102">
+      <c r="G29" s="111">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="M29" s="102">
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="M29" s="111">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -9130,11 +9266,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="144" t="s">
+      <c r="D31" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -9161,9 +9297,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -9173,7 +9309,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="146" t="s">
+      <c r="J32" s="155" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -9185,28 +9321,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="146" t="s">
+      <c r="O32" s="155" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="147">
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="156">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="146"/>
-      <c r="L33" s="147">
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="155"/>
+      <c r="L33" s="156">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="146"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -9221,21 +9357,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="159"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -9262,9 +9398,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -9274,7 +9410,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="146" t="s">
+      <c r="J36" s="155" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -9286,7 +9422,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="146" t="s">
+      <c r="O36" s="155" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -9308,23 +9444,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="147">
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="156">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="146"/>
-      <c r="L37" s="147">
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="155"/>
+      <c r="L37" s="156">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="146"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="155"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -9402,11 +9538,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="90" t="s">
+      <c r="G43" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -9461,12 +9597,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="102">
+      <c r="G46" s="111">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -9500,11 +9636,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="144" t="s">
+      <c r="D48" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9518,11 +9654,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="144" t="s">
+      <c r="L48" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -9543,9 +9679,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -9555,13 +9691,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="155" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -9571,7 +9707,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="146" t="s">
+      <c r="R49" s="155" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -9582,27 +9718,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="147">
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="156">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="146"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="155"/>
       <c r="K50"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="147">
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="156">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="146"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="155"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -9618,10 +9754,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="148"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="150"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="159"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -9636,11 +9772,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="144" t="s">
+      <c r="D52" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9654,11 +9790,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="144" t="s">
+      <c r="L52" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -9679,9 +9815,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -9691,13 +9827,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="146" t="s">
+      <c r="J53" s="155" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -9707,7 +9843,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="146" t="s">
+      <c r="R53" s="155" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -9725,27 +9861,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="147">
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="156">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="146"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="155"/>
       <c r="K54"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="147">
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="156">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="155"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -9789,19 +9925,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="154" t="s">
+      <c r="D58" s="162"/>
+      <c r="E58" s="162"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
       <c r="L58" s="63" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -9813,23 +9949,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="155" t="s">
+      <c r="F60" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="156">
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="165">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
       <c r="I61" s="67" t="s">
         <v>13</v>
       </c>
@@ -9844,9 +9980,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -9865,29 +10001,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="159"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="168"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="155" t="s">
+      <c r="F64" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="160">
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="169">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="67" t="s">
         <v>13</v>
       </c>
@@ -9902,9 +10038,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -9976,16 +10112,16 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="151" t="s">
+      <c r="T71" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="152"/>
+      <c r="U71" s="161"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -10081,19 +10217,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="161">
+      <c r="F74" s="170">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="162" t="s">
+      <c r="T74" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="162"/>
+      <c r="U74" s="171"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -10143,11 +10279,11 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="91" t="s">
+      <c r="F83" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -10183,10 +10319,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="151" t="s">
+      <c r="T84" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="152"/>
+      <c r="U84" s="161"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -10228,10 +10364,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="163" t="s">
+      <c r="T85" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="164"/>
+      <c r="U85" s="173"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -10245,12 +10381,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="165">
+      <c r="F86" s="174">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
+      <c r="G86" s="174"/>
+      <c r="H86" s="174"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -10262,10 +10398,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="163" t="s">
+      <c r="T86" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="164"/>
+      <c r="U86" s="173"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -10282,10 +10418,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="163" t="s">
+      <c r="T87" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="164"/>
+      <c r="U87" s="173"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -10302,10 +10438,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="151" t="s">
+      <c r="T88" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="152"/>
+      <c r="U88" s="161"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -10374,11 +10510,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="91" t="s">
+      <c r="O92" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
+      <c r="P92" s="100"/>
+      <c r="Q92" s="100"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -10391,13 +10527,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="172" t="s">
+      <c r="W92" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="102" t="s">
+      <c r="X92" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="102">
+      <c r="Y92" s="111">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -10447,9 +10583,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
+      <c r="W93" s="111"/>
+      <c r="X93" s="111"/>
+      <c r="Y93" s="111"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -10489,9 +10625,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="102"/>
-      <c r="X94" s="102"/>
-      <c r="Y94" s="102"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -10499,12 +10635,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="161">
+      <c r="O95" s="170">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="161"/>
-      <c r="Q95" s="161"/>
+      <c r="P95" s="170"/>
+      <c r="Q95" s="170"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -10614,11 +10750,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="91" t="s">
+      <c r="F106" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="100"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="67" t="s">
@@ -10646,28 +10782,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="166">
+      <c r="F109" s="175">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="167"/>
-      <c r="H109" s="168"/>
-      <c r="J109" s="100">
+      <c r="G109" s="176"/>
+      <c r="H109" s="177"/>
+      <c r="J109" s="109">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100" t="s">
+      <c r="K109" s="109"/>
+      <c r="L109" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="100"/>
+      <c r="M109" s="109"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="169" t="s">
+      <c r="G112" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="169"/>
-      <c r="I112" s="169"/>
+      <c r="H112" s="178"/>
+      <c r="I112" s="178"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -10679,15 +10815,15 @@
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="169" t="s">
+      <c r="N112" s="180"/>
+      <c r="O112" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="169"/>
-      <c r="Q112" s="169"/>
+      <c r="P112" s="178"/>
+      <c r="Q112" s="178"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -10701,9 +10837,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="169"/>
-      <c r="H113" s="169"/>
-      <c r="I113" s="169"/>
+      <c r="G113" s="178"/>
+      <c r="H113" s="178"/>
+      <c r="I113" s="178"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -10715,11 +10851,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="169"/>
-      <c r="P113" s="169"/>
-      <c r="Q113" s="169"/>
+      <c r="M113" s="179"/>
+      <c r="N113" s="180"/>
+      <c r="O113" s="178"/>
+      <c r="P113" s="178"/>
+      <c r="Q113" s="178"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -10914,23 +11050,23 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="16" t="s">
         <v>71</v>
@@ -10940,14 +11076,14 @@
       <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
     </row>
     <row r="4" spans="2:36" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62" t="s">
@@ -10961,49 +11097,49 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="S4" s="89" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="S4" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90" t="s">
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="S5" s="92" t="s">
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="S5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -11042,14 +11178,14 @@
       <c r="M6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
       <c r="AA6" s="1" t="s">
         <v>9</v>
       </c>
@@ -11064,31 +11200,31 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="94">
+      <c r="B7" s="103">
         <v>9</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="105">
         <v>56</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="107">
         <v>42</v>
       </c>
-      <c r="E7" s="94">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96">
-        <v>0</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="96">
-        <v>0</v>
-      </c>
-      <c r="J7" s="98">
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="105">
+        <v>0</v>
+      </c>
+      <c r="G7" s="107">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0</v>
+      </c>
+      <c r="I7" s="105">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107">
         <v>0</v>
       </c>
       <c r="K7" s="36">
@@ -11103,14 +11239,14 @@
         <f>INT(3600 * (AJ7-K7-L7/60))</f>
         <v>42</v>
       </c>
-      <c r="S7" s="100" t="s">
+      <c r="S7" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
       <c r="AA7" s="1">
         <f>B7+C7/60+D7/3600</f>
         <v>9.9450000000000003</v>
@@ -11129,51 +11265,51 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="101">
+      <c r="B8" s="104"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="110">
         <f>K7+L7/60+M7/3600</f>
         <v>9.9450000000000003</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="S8" s="103" t="s">
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="S8" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
     </row>
     <row r="9" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
@@ -11200,8 +11336,8 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="41">
         <v>48.875556000000003</v>
       </c>
@@ -11211,7 +11347,7 @@
       <c r="F11" s="41">
         <v>0</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="121" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="41">
@@ -11223,33 +11359,33 @@
       <c r="J11" s="41">
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="116">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="125">
         <f>(D11+E11/60+F11/3600) * VLOOKUP(G11,Constante!$D$15:$E$16,2)</f>
         <v>48.875556000000003</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="116">
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="125">
         <f>(H11+I11/60+J11/3600) * VLOOKUP(K11,Constante!$D$12:$E$13,2)</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
@@ -11264,8 +11400,8 @@
       </c>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11280,46 +11416,46 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130">
         <f>(E14+F14/60+G14/3600) * VLOOKUP(D14,Constante!J12:K13,2)</f>
         <v>0.7</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="2:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="130" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="110" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="136" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138" t="s">
+      <c r="K16" s="146"/>
+      <c r="L16" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="M16" s="148"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
@@ -11332,11 +11468,11 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="41">
         <v>31</v>
       </c>
@@ -11349,21 +11485,21 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="140">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="149">
         <f>G18+H18/60+I18/3600</f>
         <v>31.283333333333335</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="143"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="49">
         <v>0</v>
       </c>
@@ -11407,16 +11543,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="M26" s="90" t="s">
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="M26" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
@@ -11459,18 +11595,18 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G29" s="102">
+      <c r="G29" s="111">
         <f>G28+H28/60+I28/3600</f>
         <v>9</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="M29" s="102">
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="M29" s="111">
         <f>M28+N28/60+O28/3600</f>
         <v>10</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
       <c r="Q29" s="19" t="s">
         <v>93</v>
       </c>
@@ -11480,11 +11616,11 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="144" t="s">
+      <c r="D31" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
@@ -11511,9 +11647,9 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="34">
         <v>5</v>
       </c>
@@ -11523,7 +11659,7 @@
       <c r="I32" s="34">
         <v>0</v>
       </c>
-      <c r="J32" s="146" t="s">
+      <c r="J32" s="155" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="34">
@@ -11535,28 +11671,28 @@
       <c r="N32" s="34">
         <v>0</v>
       </c>
-      <c r="O32" s="146" t="s">
+      <c r="O32" s="155" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="147">
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="156">
         <f>(G32+H32/60+I32/3600) * VLOOKUP(J32,Constante!$D$15:$E$16,2)</f>
         <v>-5.5533333333333337</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="146"/>
-      <c r="L33" s="147">
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="155"/>
+      <c r="L33" s="156">
         <f>(L32+M32/60+N32/3600) * VLOOKUP(O32,Constante!$D$15:$E$16,2)</f>
         <v>-5.57</v>
       </c>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="146"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
       <c r="Q33" s="70" t="s">
         <v>109</v>
       </c>
@@ -11571,21 +11707,21 @@
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="159"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
@@ -11612,9 +11748,9 @@
       </c>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
       <c r="G36" s="34">
         <v>359</v>
       </c>
@@ -11624,7 +11760,7 @@
       <c r="I36" s="34">
         <v>0</v>
       </c>
-      <c r="J36" s="146" t="s">
+      <c r="J36" s="155" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="34">
@@ -11636,7 +11772,7 @@
       <c r="N36" s="34">
         <v>0</v>
       </c>
-      <c r="O36" s="146" t="s">
+      <c r="O36" s="155" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="70" t="s">
@@ -11658,23 +11794,23 @@
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="147">
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="156">
         <f>(G36+H36/60+I36/3600) * VLOOKUP(J36,Constante!$D$12:$E$13,2)</f>
         <v>359.03333333333336</v>
       </c>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="146"/>
-      <c r="L37" s="147">
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="155"/>
+      <c r="L37" s="156">
         <f>(L36+M36/60+N36/3600) * VLOOKUP(O36,Constante!$D$12:$E$13,2)</f>
         <v>20.035</v>
       </c>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="146"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="155"/>
       <c r="T37" s="19" t="s">
         <v>92</v>
       </c>
@@ -11752,11 +11888,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="G43" s="90" t="s">
+      <c r="G43" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -11811,12 +11947,12 @@
       <c r="AE45"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G46" s="102">
+      <c r="G46" s="111">
         <f>G45+H45/60+I45/3600</f>
         <v>0</v>
       </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -11850,11 +11986,11 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="144" t="s">
+      <c r="D48" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11868,11 +12004,11 @@
         <v>22</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="144" t="s">
+      <c r="L48" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="26" t="s">
         <v>13</v>
       </c>
@@ -11893,9 +12029,9 @@
       <c r="AE48"/>
     </row>
     <row r="49" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="38">
         <v>6</v>
       </c>
@@ -11905,13 +12041,13 @@
       <c r="I49" s="34">
         <v>0</v>
       </c>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="155" t="s">
         <v>29</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="34">
         <v>0</v>
       </c>
@@ -11921,7 +12057,7 @@
       <c r="Q49" s="34">
         <v>0</v>
       </c>
-      <c r="R49" s="146" t="s">
+      <c r="R49" s="155" t="s">
         <v>28</v>
       </c>
       <c r="Z49"/>
@@ -11932,27 +12068,27 @@
       <c r="AE49"/>
     </row>
     <row r="50" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="147">
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="156">
         <f>(G49+H49/60+I49/3600) * VLOOKUP(J49,Constante!$D$15:$E$16,2)</f>
         <v>-6.5983333333333336</v>
       </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="146"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="155"/>
       <c r="K50"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="147">
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="156">
         <f>(O49+P49/60+Q49/3600) * VLOOKUP(R49,Constante!$D$15:$E$16,2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="146"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="155"/>
       <c r="T50" s="19" t="s">
         <v>92</v>
       </c>
@@ -11968,10 +12104,10 @@
       <c r="AE50"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="148"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="150"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="159"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -11986,11 +12122,11 @@
       <c r="AE51"/>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="144" t="s">
+      <c r="D52" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
       <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
@@ -12004,11 +12140,11 @@
         <v>22</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="144" t="s">
+      <c r="L52" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="26" t="s">
         <v>13</v>
       </c>
@@ -12029,9 +12165,9 @@
       <c r="AE52"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="38">
         <v>177</v>
       </c>
@@ -12041,13 +12177,13 @@
       <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="146" t="s">
+      <c r="J53" s="155" t="s">
         <v>32</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="34">
         <v>15.002000000000001</v>
       </c>
@@ -12057,7 +12193,7 @@
       <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="146" t="s">
+      <c r="R53" s="155" t="s">
         <v>32</v>
       </c>
       <c r="T53" s="19"/>
@@ -12075,27 +12211,27 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="147">
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="156">
         <f>(G53+H53/60+I53/3600) * VLOOKUP(J53,Constante!$D$12:$E$13,2)</f>
         <v>177.03166666666667</v>
       </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="146"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="155"/>
       <c r="K54"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="147">
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="156">
         <f>(O53+P53/60+Q53/3600) * VLOOKUP(R53,Constante!$D$12:$E$13,2)</f>
         <v>15.002000000000001</v>
       </c>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="155"/>
       <c r="T54" s="19" t="s">
         <v>92</v>
       </c>
@@ -12139,19 +12275,19 @@
       <c r="AE57"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="154" t="s">
+      <c r="D58" s="162"/>
+      <c r="E58" s="162"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
       <c r="L58" s="58" t="str">
         <f>VLOOKUP(H58,Constante!D23:E24,2)</f>
         <v>Cas B</v>
@@ -12163,23 +12299,23 @@
       </c>
     </row>
     <row r="60" spans="3:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="155" t="s">
+      <c r="F60" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="156">
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="165">
         <f>IF(L58=Constante!E23,U33,U50)</f>
         <v>-6.4325833333333335</v>
       </c>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
       <c r="I61" s="17" t="s">
         <v>13</v>
       </c>
@@ -12194,9 +12330,9 @@
       </c>
     </row>
     <row r="62" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
       <c r="I62" s="20">
         <f>INT(ABS(I60))</f>
         <v>6</v>
@@ -12215,29 +12351,29 @@
       </c>
     </row>
     <row r="63" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="159"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="168"/>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="F64" s="155" t="s">
+      <c r="F64" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="160">
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="169">
         <f>IF(L58="a",AA67,Z52)+H12</f>
         <v>2.0948030000000002</v>
       </c>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="17" t="s">
         <v>13</v>
       </c>
@@ -12252,9 +12388,9 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
       <c r="I66" s="20">
         <f>INT(ABS(I64))</f>
         <v>2</v>
@@ -12326,16 +12462,16 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
       <c r="S71" s="19"/>
-      <c r="T71" s="151" t="s">
+      <c r="T71" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U71" s="152"/>
+      <c r="U71" s="161"/>
       <c r="V71" s="69">
         <f>V70*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12431,19 +12567,19 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F74" s="161">
+      <c r="F74" s="170">
         <f>V74/Constante!$D$19</f>
         <v>34.661430958715577</v>
       </c>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
       <c r="S74" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T74" s="162" t="s">
+      <c r="T74" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="U74" s="162"/>
+      <c r="U74" s="171"/>
       <c r="V74" s="69">
         <f>ASIN(V72+V73)</f>
         <v>0.60495609368228154</v>
@@ -12493,11 +12629,11 @@
       <c r="AC82" s="19"/>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="91" t="s">
+      <c r="F83" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -12533,10 +12669,10 @@
         <v>5</v>
       </c>
       <c r="S84" s="19"/>
-      <c r="T84" s="151" t="s">
+      <c r="T84" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U84" s="152"/>
+      <c r="U84" s="161"/>
       <c r="V84" s="69">
         <f>V83*Constante!$D$19</f>
         <v>-0.11226975857557858</v>
@@ -12578,10 +12714,10 @@
       <c r="S85" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T85" s="163" t="s">
+      <c r="T85" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="U85" s="164"/>
+      <c r="U85" s="173"/>
       <c r="V85" s="19">
         <f>SIN(V84)</f>
         <v>-0.11203405649912536</v>
@@ -12595,12 +12731,12 @@
       <c r="AC85" s="19"/>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="165">
+      <c r="F86" s="174">
         <f>V88/Constante!$D$19</f>
         <v>177.46898521244154</v>
       </c>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
+      <c r="G86" s="174"/>
+      <c r="H86" s="174"/>
       <c r="J86" s="53"/>
       <c r="K86" s="54">
         <f>IF(I64&lt;180,ABS(F86-360),F86)</f>
@@ -12612,10 +12748,10 @@
       <c r="S86" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T86" s="163" t="s">
+      <c r="T86" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="U86" s="164"/>
+      <c r="U86" s="173"/>
       <c r="V86" s="19">
         <f>SIN(X84)*SIN(AB84)</f>
         <v>0.42841152475664518</v>
@@ -12632,10 +12768,10 @@
       <c r="S87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="163" t="s">
+      <c r="T87" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="U87" s="164"/>
+      <c r="U87" s="173"/>
       <c r="V87" s="19">
         <f>COS(X84)*COS(AB84)</f>
         <v>0.5409733204231264</v>
@@ -12652,10 +12788,10 @@
       <c r="S88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T88" s="151" t="s">
+      <c r="T88" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="U88" s="152"/>
+      <c r="U88" s="161"/>
       <c r="V88" s="69">
         <f>ACOS(((V85-V86)/V87))</f>
         <v>3.0974181121302333</v>
@@ -12724,11 +12860,11 @@
       <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O92" s="91" t="s">
+      <c r="O92" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
+      <c r="P92" s="100"/>
+      <c r="Q92" s="100"/>
       <c r="S92" s="63" t="s">
         <v>23</v>
       </c>
@@ -12741,13 +12877,13 @@
       <c r="V92" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W92" s="172" t="s">
+      <c r="W92" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="X92" s="102" t="s">
+      <c r="X92" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="102">
+      <c r="Y92" s="111">
         <f>IF(U93,U94,IF(T93,IF(V93,V94,T94),IF(S93,S94,888)))</f>
         <v>0</v>
       </c>
@@ -12797,9 +12933,9 @@
         <f>ISNUMBER(SEARCH(L16,Constante!G4))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
+      <c r="W93" s="111"/>
+      <c r="X93" s="111"/>
+      <c r="Y93" s="111"/>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D94" s="19"/>
@@ -12839,9 +12975,9 @@
         <f>Constante!Q20</f>
         <v>-0.53333333333300004</v>
       </c>
-      <c r="W94" s="102"/>
-      <c r="X94" s="102"/>
-      <c r="Y94" s="102"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F95"/>
@@ -12849,12 +12985,12 @@
       <c r="I95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="161">
+      <c r="O95" s="170">
         <f>D93-F93+I93+I94</f>
         <v>30.82585555555556</v>
       </c>
-      <c r="P95" s="161"/>
-      <c r="Q95" s="161"/>
+      <c r="P95" s="170"/>
+      <c r="Q95" s="170"/>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
@@ -12964,11 +13100,11 @@
       </c>
     </row>
     <row r="106" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="91" t="s">
+      <c r="F106" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="100"/>
     </row>
     <row r="107" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F107" s="17" t="s">
@@ -12996,28 +13132,28 @@
       </c>
     </row>
     <row r="109" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F109" s="166">
+      <c r="F109" s="175">
         <f>O95-F74</f>
         <v>-3.8355754031600178</v>
       </c>
-      <c r="G109" s="167"/>
-      <c r="H109" s="168"/>
-      <c r="J109" s="100">
+      <c r="G109" s="176"/>
+      <c r="H109" s="177"/>
+      <c r="J109" s="109">
         <f>F109*60</f>
         <v>-230.13452418960105</v>
       </c>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100" t="s">
+      <c r="K109" s="109"/>
+      <c r="L109" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="M109" s="100"/>
+      <c r="M109" s="109"/>
     </row>
     <row r="112" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="169" t="s">
+      <c r="G112" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="169"/>
-      <c r="I112" s="169"/>
+      <c r="H112" s="178"/>
+      <c r="I112" s="178"/>
       <c r="J112" s="83" t="s">
         <v>17</v>
       </c>
@@ -13029,15 +13165,15 @@
         <f>L62</f>
         <v>S</v>
       </c>
-      <c r="M112" s="170" t="s">
+      <c r="M112" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="N112" s="171"/>
-      <c r="O112" s="169" t="s">
+      <c r="N112" s="180"/>
+      <c r="O112" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="P112" s="169"/>
-      <c r="Q112" s="169"/>
+      <c r="P112" s="178"/>
+      <c r="Q112" s="178"/>
       <c r="R112" s="83" t="s">
         <v>17</v>
       </c>
@@ -13051,9 +13187,9 @@
       </c>
     </row>
     <row r="113" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G113" s="169"/>
-      <c r="H113" s="169"/>
-      <c r="I113" s="169"/>
+      <c r="G113" s="178"/>
+      <c r="H113" s="178"/>
+      <c r="I113" s="178"/>
       <c r="J113" s="83" t="s">
         <v>16</v>
       </c>
@@ -13065,11 +13201,11 @@
         <f>L66</f>
         <v>E</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="171"/>
-      <c r="O113" s="169"/>
-      <c r="P113" s="169"/>
-      <c r="Q113" s="169"/>
+      <c r="M113" s="179"/>
+      <c r="N113" s="180"/>
+      <c r="O113" s="178"/>
+      <c r="P113" s="178"/>
+      <c r="Q113" s="178"/>
       <c r="R113" s="83" t="s">
         <v>16</v>
       </c>
@@ -13244,7 +13380,7 @@
   <dimension ref="C3:T31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13272,16 +13408,16 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="173" t="s">
+      <c r="L3" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="175"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="184"/>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
@@ -13298,16 +13434,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="176" t="s">
+      <c r="M4" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="177" t="s">
+      <c r="N4" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
       <c r="S4" s="7"/>
       <c r="T4" s="6"/>
     </row>
@@ -13321,7 +13457,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="176"/>
+      <c r="M5" s="185"/>
       <c r="N5" s="8">
         <v>0</v>
       </c>
@@ -13824,6 +13960,15 @@
       </c>
       <c r="E24" s="10" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
